--- a/Dados/BR_TRI/tabPSTRI_2015.xlsx
+++ b/Dados/BR_TRI/tabPSTRI_2015.xlsx
@@ -16,12 +16,9 @@
     <sheet name="N PRINCIPAL" sheetId="7" r:id="rId7"/>
     <sheet name="HABITUAL PRINCIPAL" sheetId="8" r:id="rId8"/>
     <sheet name="EFETIVA PRINCIPAL" sheetId="9" r:id="rId9"/>
-    <sheet name="N P&amp;S" sheetId="10" r:id="rId10"/>
-    <sheet name="HABITUAL P&amp;S" sheetId="11" r:id="rId11"/>
-    <sheet name="EFETIVA P&amp;S" sheetId="12" r:id="rId12"/>
-    <sheet name="N SECUNDÁRIO" sheetId="13" r:id="rId13"/>
-    <sheet name="HABITUAL SECUNDÁRIO" sheetId="14" r:id="rId14"/>
-    <sheet name="EFETIVA SECUNDÁRIO" sheetId="15" r:id="rId15"/>
+    <sheet name="N SECUNDÁRIO" sheetId="10" r:id="rId10"/>
+    <sheet name="HABITUAL SECUNDÁRIO" sheetId="11" r:id="rId11"/>
+    <sheet name="EFETIVA SECUNDÁRIO" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +546,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>cod_SCN_PR</t>
+          <t>cod_SCN_SEC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -608,22 +605,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>11232.33317042</v>
+        <v>311.92309406</v>
       </c>
       <c r="E2">
-        <v>3017.488341012032</v>
+        <v>302.0334000949636</v>
       </c>
       <c r="F2">
-        <v>5281.977289157961</v>
+        <v>-283.6736458398712</v>
       </c>
       <c r="G2">
-        <v>17182.68905168204</v>
+        <v>907.5198339598712</v>
       </c>
       <c r="H2">
-        <v>9105235.888143545</v>
+        <v>91224.17477292437</v>
       </c>
       <c r="I2">
-        <v>0.2686430588578421</v>
+        <v>0.9682944477232774</v>
       </c>
     </row>
     <row r="3">
@@ -641,22 +638,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>14912.03845443</v>
+        <v>1298.29135063</v>
       </c>
       <c r="E3">
-        <v>3211.198805184387</v>
+        <v>900.4099894752995</v>
       </c>
       <c r="F3">
-        <v>8579.693955653242</v>
+        <v>-477.2780206254679</v>
       </c>
       <c r="G3">
-        <v>21244.38295320676</v>
+        <v>3073.860721885468</v>
       </c>
       <c r="H3">
-        <v>10311797.76641764</v>
+        <v>810738.149146909</v>
       </c>
       <c r="I3">
-        <v>0.2153427121984399</v>
+        <v>0.6935346130422672</v>
       </c>
     </row>
     <row r="4">
@@ -674,22 +671,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>13069.32263817</v>
+        <v>999.40974979</v>
       </c>
       <c r="E4">
-        <v>4125.312457394508</v>
+        <v>846.2436649667532</v>
       </c>
       <c r="F4">
-        <v>4934.385740727625</v>
+        <v>-669.3459833727759</v>
       </c>
       <c r="G4">
-        <v>21204.25953561238</v>
+        <v>2668.165482952776</v>
       </c>
       <c r="H4">
-        <v>17018202.87113431</v>
+        <v>716128.3404963624</v>
       </c>
       <c r="I4">
-        <v>0.3156485283595497</v>
+        <v>0.84674345546916</v>
       </c>
     </row>
     <row r="5">
@@ -707,22 +704,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>29690.11378285</v>
+        <v>517.09612724</v>
       </c>
       <c r="E5">
-        <v>6060.460430658109</v>
+        <v>510.3332937450715</v>
       </c>
       <c r="F5">
-        <v>17739.14917543495</v>
+        <v>-489.2589511101454</v>
       </c>
       <c r="G5">
-        <v>41641.07839026504</v>
+        <v>1523.451205590145</v>
       </c>
       <c r="H5">
-        <v>36729180.63157267</v>
+        <v>260440.0707046934</v>
       </c>
       <c r="I5">
-        <v>0.2041238533130457</v>
+        <v>0.9869215158678037</v>
       </c>
     </row>
     <row r="6">
@@ -740,22 +737,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>9289731.08346883</v>
+        <v>386772.4402862</v>
       </c>
       <c r="E6">
-        <v>106126.4328670624</v>
+        <v>16702.19706846356</v>
       </c>
       <c r="F6">
-        <v>9080454.369658532</v>
+        <v>353836.4334736609</v>
       </c>
       <c r="G6">
-        <v>9499007.797279129</v>
+        <v>419708.4470987392</v>
       </c>
       <c r="H6">
-        <v>11262819753.0871</v>
+        <v>278963386.9137926</v>
       </c>
       <c r="I6">
-        <v>0.01142405866364802</v>
+        <v>0.04318352428654024</v>
       </c>
     </row>
     <row r="7">
@@ -773,22 +770,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>9317013.49858468</v>
+        <v>389649.08838449</v>
       </c>
       <c r="E7">
-        <v>111563.4880585896</v>
+        <v>15265.06592827607</v>
       </c>
       <c r="F7">
-        <v>9097015.148207992</v>
+        <v>359547.0417287915</v>
       </c>
       <c r="G7">
-        <v>9537011.848961368</v>
+        <v>419751.1350401884</v>
       </c>
       <c r="H7">
-        <v>12446411867.79907</v>
+        <v>233022237.7946149</v>
       </c>
       <c r="I7">
-        <v>0.01197416834005198</v>
+        <v>0.0391764446095999</v>
       </c>
     </row>
     <row r="8">
@@ -806,22 +803,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>9232723.361963101</v>
+        <v>389306.12690102</v>
       </c>
       <c r="E8">
-        <v>110959.3077295784</v>
+        <v>14961.55772640629</v>
       </c>
       <c r="F8">
-        <v>9013916.428940114</v>
+        <v>359802.5852302327</v>
       </c>
       <c r="G8">
-        <v>9451530.294986088</v>
+        <v>418809.6685718073</v>
       </c>
       <c r="H8">
-        <v>12311967971.82728</v>
+        <v>223848209.6005877</v>
       </c>
       <c r="I8">
-        <v>0.01201804747954517</v>
+        <v>0.03843134410830945</v>
       </c>
     </row>
     <row r="9">
@@ -839,22 +836,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>9109862.871689791</v>
+        <v>324385.1794537</v>
       </c>
       <c r="E9">
-        <v>112509.0091098328</v>
+        <v>14971.18366480864</v>
       </c>
       <c r="F9">
-        <v>8887999.994888376</v>
+        <v>294862.6558506857</v>
       </c>
       <c r="G9">
-        <v>9331725.748491205</v>
+        <v>353907.7030567143</v>
       </c>
       <c r="H9">
-        <v>12658277130.87644</v>
+        <v>224136340.3254329</v>
       </c>
       <c r="I9">
-        <v>0.01235024178678592</v>
+        <v>0.04615248973464737</v>
       </c>
     </row>
     <row r="10">
@@ -872,22 +869,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>468921.95628666</v>
+        <v>3106.75257545</v>
       </c>
       <c r="E10">
-        <v>23464.68442676246</v>
+        <v>1446.065675954347</v>
       </c>
       <c r="F10">
-        <v>422650.6182725036</v>
+        <v>255.1739023339915</v>
       </c>
       <c r="G10">
-        <v>515193.2943008164</v>
+        <v>5958.331248566009</v>
       </c>
       <c r="H10">
-        <v>550591415.2475486</v>
+        <v>2091105.939173304</v>
       </c>
       <c r="I10">
-        <v>0.05003963689944622</v>
+        <v>0.465458912750685</v>
       </c>
     </row>
     <row r="11">
@@ -905,22 +902,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>489232.96009974</v>
+        <v>2014.12225733</v>
       </c>
       <c r="E11">
-        <v>23918.18640819769</v>
+        <v>1340.983705619174</v>
       </c>
       <c r="F11">
-        <v>442067.3358854613</v>
+        <v>-630.2393367006944</v>
       </c>
       <c r="G11">
-        <v>536398.5843140187</v>
+        <v>4658.483851360695</v>
       </c>
       <c r="H11">
-        <v>572079641.0572925</v>
+        <v>1798237.298736131</v>
       </c>
       <c r="I11">
-        <v>0.04888915579874561</v>
+        <v>0.6657906195807769</v>
       </c>
     </row>
     <row r="12">
@@ -938,22 +935,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>491432.98927829</v>
+        <v>4180.8740638</v>
       </c>
       <c r="E12">
-        <v>25802.86049390206</v>
+        <v>1474.972013029934</v>
       </c>
       <c r="F12">
-        <v>440550.8696669249</v>
+        <v>1272.293350117441</v>
       </c>
       <c r="G12">
-        <v>542315.1088896552</v>
+        <v>7089.454777482559</v>
       </c>
       <c r="H12">
-        <v>665787609.6677716</v>
+        <v>2175542.439221577</v>
       </c>
       <c r="I12">
-        <v>0.05250534875934091</v>
+        <v>0.3527903473106126</v>
       </c>
     </row>
     <row r="13">
@@ -971,22 +968,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>441642.29885683</v>
+        <v>545.67655254</v>
       </c>
       <c r="E13">
-        <v>25467.44186192824</v>
+        <v>400.9388426174393</v>
       </c>
       <c r="F13">
-        <v>391421.6102118496</v>
+        <v>-244.9574220041827</v>
       </c>
       <c r="G13">
-        <v>491862.9875018104</v>
+        <v>1336.310527084183</v>
       </c>
       <c r="H13">
-        <v>648590594.990695</v>
+        <v>160751.9555194118</v>
       </c>
       <c r="I13">
-        <v>0.05766531405132502</v>
+        <v>0.7347554897698286</v>
       </c>
     </row>
     <row r="14">
@@ -1004,22 +1001,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>11992254.15730684</v>
+        <v>123985.10904174</v>
       </c>
       <c r="E14">
-        <v>142578.6521106719</v>
+        <v>8044.570300252884</v>
       </c>
       <c r="F14">
-        <v>11711095.25120661</v>
+        <v>108121.565992463</v>
       </c>
       <c r="G14">
-        <v>12273413.06340707</v>
+        <v>139848.652091017</v>
       </c>
       <c r="H14">
-        <v>20328672037.69599</v>
+        <v>64715111.31571078</v>
       </c>
       <c r="I14">
-        <v>0.01188922868381664</v>
+        <v>0.06488335867450544</v>
       </c>
     </row>
     <row r="15">
@@ -1037,22 +1034,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>11861110.87861513</v>
+        <v>118573.32635319</v>
       </c>
       <c r="E15">
-        <v>131055.9004765016</v>
+        <v>9200.830247095557</v>
       </c>
       <c r="F15">
-        <v>11602674.33800769</v>
+        <v>100429.6889348805</v>
       </c>
       <c r="G15">
-        <v>12119547.41922257</v>
+        <v>136716.9637714995</v>
       </c>
       <c r="H15">
-        <v>17175649049.7067</v>
+        <v>84655277.23586848</v>
       </c>
       <c r="I15">
-        <v>0.0110492096244364</v>
+        <v>0.07759612157366137</v>
       </c>
     </row>
     <row r="16">
@@ -1070,22 +1067,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>11640850.0951112</v>
+        <v>157683.12155571</v>
       </c>
       <c r="E16">
-        <v>125405.6628475026</v>
+        <v>22431.74420717991</v>
       </c>
       <c r="F16">
-        <v>11393555.57757284</v>
+        <v>113448.6967673803</v>
       </c>
       <c r="G16">
-        <v>11888144.61264956</v>
+        <v>201917.5463440398</v>
       </c>
       <c r="H16">
-        <v>15726580274.22149</v>
+        <v>503183148.1763492</v>
       </c>
       <c r="I16">
-        <v>0.01077289560666786</v>
+        <v>0.1422583722713448</v>
       </c>
     </row>
     <row r="17">
@@ -1103,22 +1100,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>11243985.26436674</v>
+        <v>115205.21647258</v>
       </c>
       <c r="E17">
-        <v>137569.8453421132</v>
+        <v>9788.81094116277</v>
       </c>
       <c r="F17">
-        <v>10972703.50755266</v>
+        <v>95902.10667671092</v>
       </c>
       <c r="G17">
-        <v>11515267.02118082</v>
+        <v>134508.3262684491</v>
       </c>
       <c r="H17">
-        <v>18925462347.45295</v>
+        <v>95820819.64182796</v>
       </c>
       <c r="I17">
-        <v>0.01223497204128194</v>
+        <v>0.08496846966554336</v>
       </c>
     </row>
     <row r="18">
@@ -1136,22 +1133,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>921410.45125032</v>
+        <v>6249.99726035</v>
       </c>
       <c r="E18">
-        <v>27594.82914381471</v>
+        <v>1672.753534994015</v>
       </c>
       <c r="F18">
-        <v>866994.6473326655</v>
+        <v>2951.3999800983</v>
       </c>
       <c r="G18">
-        <v>975826.2551679744</v>
+        <v>9548.5945406017</v>
       </c>
       <c r="H18">
-        <v>761474595.4763259</v>
+        <v>2798104.388834975</v>
       </c>
       <c r="I18">
-        <v>0.02994846553603722</v>
+        <v>0.26764068291773</v>
       </c>
     </row>
     <row r="19">
@@ -1169,22 +1166,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>896198.4645612</v>
+        <v>8988.573814560001</v>
       </c>
       <c r="E19">
-        <v>30293.14706354566</v>
+        <v>2521.996622404881</v>
       </c>
       <c r="F19">
-        <v>836461.6949632604</v>
+        <v>4015.306070427881</v>
       </c>
       <c r="G19">
-        <v>955935.2341591396</v>
+        <v>13961.84155869212</v>
       </c>
       <c r="H19">
-        <v>917674759.0136054</v>
+        <v>6360466.963421627</v>
       </c>
       <c r="I19">
-        <v>0.03380182879288675</v>
+        <v>0.2805780621526036</v>
       </c>
     </row>
     <row r="20">
@@ -1202,22 +1199,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>888708.21921219</v>
+        <v>4277.34635755</v>
       </c>
       <c r="E20">
-        <v>24042.42283881015</v>
+        <v>1165.363627808186</v>
       </c>
       <c r="F20">
-        <v>841297.6061555305</v>
+        <v>1979.299925260686</v>
       </c>
       <c r="G20">
-        <v>936118.8322688495</v>
+        <v>6575.392789839314</v>
       </c>
       <c r="H20">
-        <v>578038095.9601398</v>
+        <v>1358072.385018255</v>
       </c>
       <c r="I20">
-        <v>0.02705322435312115</v>
+        <v>0.272450143241542</v>
       </c>
     </row>
     <row r="21">
@@ -1235,22 +1232,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>800821.06220859</v>
+        <v>3715.81995182</v>
       </c>
       <c r="E21">
-        <v>24548.65848502162</v>
+        <v>1081.291660521057</v>
       </c>
       <c r="F21">
-        <v>752412.1744564503</v>
+        <v>1583.559785610658</v>
       </c>
       <c r="G21">
-        <v>849229.9499607297</v>
+        <v>5848.080118029342</v>
       </c>
       <c r="H21">
-        <v>602636633.4142241</v>
+        <v>1169191.655112385</v>
       </c>
       <c r="I21">
-        <v>0.03065436168389316</v>
+        <v>0.2909967852429025</v>
       </c>
     </row>
     <row r="22">
@@ -1268,22 +1265,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>7736050.34780443</v>
+        <v>90684.60777969001</v>
       </c>
       <c r="E22">
-        <v>87493.71277775316</v>
+        <v>9153.379110245663</v>
       </c>
       <c r="F22">
-        <v>7563516.548311456</v>
+        <v>72634.5419412238</v>
       </c>
       <c r="G22">
-        <v>7908584.147297404</v>
+        <v>108734.6736181562</v>
       </c>
       <c r="H22">
-        <v>7655149775.635966</v>
+        <v>83784349.13588169</v>
       </c>
       <c r="I22">
-        <v>0.0113098685820452</v>
+        <v>0.10093641395553</v>
       </c>
     </row>
     <row r="23">
@@ -1301,22 +1298,22 @@
         </is>
       </c>
       <c r="D23">
-        <v>7245922.38385837</v>
+        <v>89741.62761537</v>
       </c>
       <c r="E23">
-        <v>81960.53850731728</v>
+        <v>7107.095590458989</v>
       </c>
       <c r="F23">
-        <v>7084299.763578468</v>
+        <v>75726.74395514163</v>
       </c>
       <c r="G23">
-        <v>7407545.004138271</v>
+        <v>103756.5112755984</v>
       </c>
       <c r="H23">
-        <v>6717529872.409439</v>
+        <v>50510807.73192161</v>
       </c>
       <c r="I23">
-        <v>0.01131126365497642</v>
+        <v>0.07919508236378098</v>
       </c>
     </row>
     <row r="24">
@@ -1334,22 +1331,22 @@
         </is>
       </c>
       <c r="D24">
-        <v>7408707.15402921</v>
+        <v>92740.49108127999</v>
       </c>
       <c r="E24">
-        <v>93537.00434185134</v>
+        <v>9492.385791005865</v>
       </c>
       <c r="F24">
-        <v>7224256.246187592</v>
+        <v>74021.91880014364</v>
       </c>
       <c r="G24">
-        <v>7593158.061870828</v>
+        <v>111459.0633624163</v>
       </c>
       <c r="H24">
-        <v>8749171181.247517</v>
+        <v>90105388.00529005</v>
       </c>
       <c r="I24">
-        <v>0.01262528028132161</v>
+        <v>0.1023542756818757</v>
       </c>
     </row>
     <row r="25">
@@ -1367,22 +1364,22 @@
         </is>
       </c>
       <c r="D25">
-        <v>8028259.07325654</v>
+        <v>74499.93255457</v>
       </c>
       <c r="E25">
-        <v>84959.00349456874</v>
+        <v>6871.46567332957</v>
       </c>
       <c r="F25">
-        <v>7860723.610322318</v>
+        <v>60949.70085144648</v>
       </c>
       <c r="G25">
-        <v>8195794.536190762</v>
+        <v>88050.16425769351</v>
       </c>
       <c r="H25">
-        <v>7218032274.790143</v>
+        <v>47217040.4997466</v>
       </c>
       <c r="I25">
-        <v>0.01058249400266382</v>
+        <v>0.09223452206881304</v>
       </c>
     </row>
     <row r="26">
@@ -1400,22 +1397,22 @@
         </is>
       </c>
       <c r="D26">
-        <v>17470132.66226785</v>
+        <v>355914.9696459</v>
       </c>
       <c r="E26">
-        <v>129693.9061719407</v>
+        <v>16458.35783655102</v>
       </c>
       <c r="F26">
-        <v>17214381.91524252</v>
+        <v>323459.8032024761</v>
       </c>
       <c r="G26">
-        <v>17725883.40929318</v>
+        <v>388370.1360893239</v>
       </c>
       <c r="H26">
-        <v>16820509298.13616</v>
+        <v>270877542.6759604</v>
       </c>
       <c r="I26">
-        <v>0.007423750504886251</v>
+        <v>0.04624238719974451</v>
       </c>
     </row>
     <row r="27">
@@ -1433,22 +1430,22 @@
         </is>
       </c>
       <c r="D27">
-        <v>17607973.33050574</v>
+        <v>364010.66393678</v>
       </c>
       <c r="E27">
-        <v>128814.940107068</v>
+        <v>14243.69767216938</v>
       </c>
       <c r="F27">
-        <v>17353955.86636421</v>
+        <v>335922.7110978022</v>
       </c>
       <c r="G27">
-        <v>17861990.79464727</v>
+        <v>392098.6167757579</v>
       </c>
       <c r="H27">
-        <v>16593288794.78752</v>
+        <v>202882923.3761635</v>
       </c>
       <c r="I27">
-        <v>0.007315716447837677</v>
+        <v>0.03912989119088877</v>
       </c>
     </row>
     <row r="28">
@@ -1466,22 +1463,22 @@
         </is>
       </c>
       <c r="D28">
-        <v>17633248.49025171</v>
+        <v>393360.72774126</v>
       </c>
       <c r="E28">
-        <v>133307.1468591268</v>
+        <v>18372.23942281128</v>
       </c>
       <c r="F28">
-        <v>17370372.58960732</v>
+        <v>357131.4699788873</v>
       </c>
       <c r="G28">
-        <v>17896124.39089609</v>
+        <v>429589.9855036327</v>
       </c>
       <c r="H28">
-        <v>17770795403.7208</v>
+        <v>337539181.4091011</v>
       </c>
       <c r="I28">
-        <v>0.007559987992729971</v>
+        <v>0.04670583036671609</v>
       </c>
     </row>
     <row r="29">
@@ -1499,22 +1496,22 @@
         </is>
       </c>
       <c r="D29">
-        <v>17758143.57743819</v>
+        <v>334512.08918406</v>
       </c>
       <c r="E29">
-        <v>143552.3560193259</v>
+        <v>16702.54471540776</v>
       </c>
       <c r="F29">
-        <v>17475064.56954312</v>
+        <v>301575.3968268542</v>
       </c>
       <c r="G29">
-        <v>18041222.58533326</v>
+        <v>367448.7815412658</v>
       </c>
       <c r="H29">
-        <v>20607278918.6993</v>
+        <v>278974999.9701958</v>
       </c>
       <c r="I29">
-        <v>0.008083747909421676</v>
+        <v>0.04993106454283466</v>
       </c>
     </row>
     <row r="30">
@@ -1532,22 +1529,22 @@
         </is>
       </c>
       <c r="D30">
-        <v>4300566.97889822</v>
+        <v>81022.32667069</v>
       </c>
       <c r="E30">
-        <v>63225.64860177535</v>
+        <v>6690.816368713232</v>
       </c>
       <c r="F30">
-        <v>4175888.747373387</v>
+        <v>67828.32754601921</v>
       </c>
       <c r="G30">
-        <v>4425245.210423052</v>
+        <v>94216.3257953608</v>
       </c>
       <c r="H30">
-        <v>3997482641.115177</v>
+        <v>44767023.67984092</v>
       </c>
       <c r="I30">
-        <v>0.01470170070876873</v>
+        <v>0.08257990906515955</v>
       </c>
     </row>
     <row r="31">
@@ -1565,22 +1562,22 @@
         </is>
       </c>
       <c r="D31">
-        <v>4281997.91203651</v>
+        <v>91328.3653188</v>
       </c>
       <c r="E31">
-        <v>56886.17937871259</v>
+        <v>8652.217518058334</v>
       </c>
       <c r="F31">
-        <v>4169820.838333179</v>
+        <v>74266.56836177522</v>
       </c>
       <c r="G31">
-        <v>4394174.985739841</v>
+        <v>108390.1622758248</v>
       </c>
       <c r="H31">
-        <v>3236037404.307066</v>
+        <v>74860867.97979553</v>
       </c>
       <c r="I31">
-        <v>0.01328496196105281</v>
+        <v>0.09473746177166351</v>
       </c>
     </row>
     <row r="32">
@@ -1598,22 +1595,22 @@
         </is>
       </c>
       <c r="D32">
-        <v>4269144.70473721</v>
+        <v>77869.55937993</v>
       </c>
       <c r="E32">
-        <v>65613.02311527992</v>
+        <v>6771.552156605474</v>
       </c>
       <c r="F32">
-        <v>4139758.674416892</v>
+        <v>64516.35278996977</v>
       </c>
       <c r="G32">
-        <v>4398530.735057527</v>
+        <v>91222.76596989023</v>
       </c>
       <c r="H32">
-        <v>4305068802.326258</v>
+        <v>45853918.60962825</v>
       </c>
       <c r="I32">
-        <v>0.01536912605526656</v>
+        <v>0.08696019613475257</v>
       </c>
     </row>
     <row r="33">
@@ -1631,22 +1628,22 @@
         </is>
       </c>
       <c r="D33">
-        <v>4501436.76307424</v>
+        <v>69294.10848033</v>
       </c>
       <c r="E33">
-        <v>67775.1082460988</v>
+        <v>6441.54980504449</v>
       </c>
       <c r="F33">
-        <v>4367787.194830975</v>
+        <v>56591.65218714892</v>
       </c>
       <c r="G33">
-        <v>4635086.331317505</v>
+        <v>81996.56477351108</v>
       </c>
       <c r="H33">
-        <v>4593465297.770409</v>
+        <v>41493563.89086871</v>
       </c>
       <c r="I33">
-        <v>0.01505632797111917</v>
+        <v>0.09295955956880525</v>
       </c>
     </row>
     <row r="34">
@@ -1664,22 +1661,22 @@
         </is>
       </c>
       <c r="D34">
-        <v>1247725.56809881</v>
+        <v>31665.25950653</v>
       </c>
       <c r="E34">
-        <v>36255.12323147392</v>
+        <v>5055.9488866693</v>
       </c>
       <c r="F34">
-        <v>1176232.040579851</v>
+        <v>21695.14801206012</v>
       </c>
       <c r="G34">
-        <v>1319219.095617769</v>
+        <v>41635.37100099989</v>
       </c>
       <c r="H34">
-        <v>1314433960.52936</v>
+        <v>25562619.14461254</v>
       </c>
       <c r="I34">
-        <v>0.02905696906309032</v>
+        <v>0.1596686389267286</v>
       </c>
     </row>
     <row r="35">
@@ -1697,22 +1694,22 @@
         </is>
       </c>
       <c r="D35">
-        <v>1265688.03668367</v>
+        <v>24274.22110782</v>
       </c>
       <c r="E35">
-        <v>36748.7962793821</v>
+        <v>3511.329153029097</v>
       </c>
       <c r="F35">
-        <v>1193221.007367168</v>
+        <v>17350.03260548231</v>
       </c>
       <c r="G35">
-        <v>1338155.066000172</v>
+        <v>31198.40961015769</v>
       </c>
       <c r="H35">
-        <v>1350474027.983528</v>
+        <v>12329432.42091204</v>
       </c>
       <c r="I35">
-        <v>0.02903463982773397</v>
+        <v>0.144652598220666</v>
       </c>
     </row>
     <row r="36">
@@ -1730,22 +1727,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>1318746.64222335</v>
+        <v>44253.67108381</v>
       </c>
       <c r="E36">
-        <v>36601.48746324925</v>
+        <v>8048.991827365425</v>
       </c>
       <c r="F36">
-        <v>1246570.099490847</v>
+        <v>28381.40897520788</v>
       </c>
       <c r="G36">
-        <v>1390923.184955853</v>
+        <v>60125.93319241211</v>
       </c>
       <c r="H36">
-        <v>1339668884.522392</v>
+        <v>64786269.4369954</v>
       </c>
       <c r="I36">
-        <v>0.02775475310522173</v>
+        <v>0.1818830309494959</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1760,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>1198477.2388434</v>
+        <v>31563.79742605</v>
       </c>
       <c r="E37">
-        <v>37563.92071727895</v>
+        <v>5819.403753757579</v>
       </c>
       <c r="F37">
-        <v>1124402.819557208</v>
+        <v>20088.18611018454</v>
       </c>
       <c r="G37">
-        <v>1272551.658129592</v>
+        <v>43039.40874191547</v>
       </c>
       <c r="H37">
-        <v>1411048139.654019</v>
+        <v>33865460.04924779</v>
       </c>
       <c r="I37">
-        <v>0.03134304056832177</v>
+        <v>0.1843695698336586</v>
       </c>
     </row>
     <row r="38">
@@ -1796,22 +1793,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>1290131.099485</v>
+        <v>7749.99434256</v>
       </c>
       <c r="E38">
-        <v>37678.57131013562</v>
+        <v>2611.20977686022</v>
       </c>
       <c r="F38">
-        <v>1215830.594211922</v>
+        <v>2600.802134666333</v>
       </c>
       <c r="G38">
-        <v>1364431.604758078</v>
+        <v>12899.18655045367</v>
       </c>
       <c r="H38">
-        <v>1419674735.972975</v>
+        <v>6818416.498770399</v>
       </c>
       <c r="I38">
-        <v>0.02920522675964971</v>
+        <v>0.336930539745101</v>
       </c>
     </row>
     <row r="39">
@@ -1829,22 +1826,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>1270292.12871139</v>
+        <v>9370.818957739999</v>
       </c>
       <c r="E39">
-        <v>37791.49127867183</v>
+        <v>2327.778501702833</v>
       </c>
       <c r="F39">
-        <v>1195768.95016738</v>
+        <v>4780.540907738559</v>
       </c>
       <c r="G39">
-        <v>1344815.3072554</v>
+        <v>13961.09700774144</v>
       </c>
       <c r="H39">
-        <v>1428196813.065929</v>
+        <v>5418552.752989887</v>
       </c>
       <c r="I39">
-        <v>0.02975023652001078</v>
+        <v>0.2484071576028221</v>
       </c>
     </row>
     <row r="40">
@@ -1862,22 +1859,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>1195362.93649227</v>
+        <v>9578.307714479999</v>
       </c>
       <c r="E40">
-        <v>34244.07013943733</v>
+        <v>3024.978362149453</v>
       </c>
       <c r="F40">
-        <v>1127835.118278991</v>
+        <v>3613.181837019439</v>
       </c>
       <c r="G40">
-        <v>1262890.754705549</v>
+        <v>15543.43359194056</v>
       </c>
       <c r="H40">
-        <v>1172656339.714704</v>
+        <v>9150494.091472387</v>
       </c>
       <c r="I40">
-        <v>0.02864742505730081</v>
+        <v>0.3158155336329866</v>
       </c>
     </row>
     <row r="41">
@@ -1895,22 +1892,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>1194069.34297257</v>
+        <v>6447.13951109</v>
       </c>
       <c r="E41">
-        <v>38602.78470246674</v>
+        <v>2079.301245154135</v>
       </c>
       <c r="F41">
-        <v>1117946.329052199</v>
+        <v>2346.847813237487</v>
       </c>
       <c r="G41">
-        <v>1270192.356892941</v>
+        <v>10547.43120894251</v>
       </c>
       <c r="H41">
-        <v>1490174986.785</v>
+        <v>4323493.668099537</v>
       </c>
       <c r="I41">
-        <v>0.03232876292290297</v>
+        <v>0.3225153173089306</v>
       </c>
     </row>
     <row r="42">
@@ -1928,22 +1925,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>558652.39998278</v>
+        <v>19094.80814944</v>
       </c>
       <c r="E42">
-        <v>24870.6731549052</v>
+        <v>3558.000996256146</v>
       </c>
       <c r="F42">
-        <v>509608.5132950183</v>
+        <v>12078.58480041844</v>
       </c>
       <c r="G42">
-        <v>607696.2866705416</v>
+        <v>26111.03149846156</v>
       </c>
       <c r="H42">
-        <v>618550383.178122</v>
+        <v>12659371.08935972</v>
       </c>
       <c r="I42">
-        <v>0.0445190482591175</v>
+        <v>0.1863334246885582</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1958,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>588460.3492118299</v>
+        <v>18590.83626751</v>
       </c>
       <c r="E43">
-        <v>24981.62953577084</v>
+        <v>3700.259453547277</v>
       </c>
       <c r="F43">
-        <v>539197.6613626938</v>
+        <v>11294.08542265803</v>
       </c>
       <c r="G43">
-        <v>637723.0370609661</v>
+        <v>25887.58711236197</v>
       </c>
       <c r="H43">
-        <v>624081814.2624981</v>
+        <v>13691920.02356599</v>
       </c>
       <c r="I43">
-        <v>0.04245252814268737</v>
+        <v>0.1990367404834812</v>
       </c>
     </row>
     <row r="44">
@@ -1994,22 +1991,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>576737.3199440599</v>
+        <v>17904.41193651</v>
       </c>
       <c r="E44">
-        <v>23359.53638993466</v>
+        <v>4281.68203130672</v>
       </c>
       <c r="F44">
-        <v>530673.3292892413</v>
+        <v>9461.121034469581</v>
       </c>
       <c r="G44">
-        <v>622801.3105988785</v>
+        <v>26347.70283855042</v>
       </c>
       <c r="H44">
-        <v>545667940.3526818</v>
+        <v>18332801.01721484</v>
       </c>
       <c r="I44">
-        <v>0.04050290415088866</v>
+        <v>0.2391411707064043</v>
       </c>
     </row>
     <row r="45">
@@ -2027,22 +2024,22 @@
         </is>
       </c>
       <c r="D45">
-        <v>567963.83275567</v>
+        <v>15943.93449468</v>
       </c>
       <c r="E45">
-        <v>31472.7589253611</v>
+        <v>3909.170193414894</v>
       </c>
       <c r="F45">
-        <v>505900.9198271464</v>
+        <v>8235.220749181612</v>
       </c>
       <c r="G45">
-        <v>630026.7456841934</v>
+        <v>23652.64824017839</v>
       </c>
       <c r="H45">
-        <v>990534554.3738966</v>
+        <v>15281611.60108344</v>
       </c>
       <c r="I45">
-        <v>0.05541331526808721</v>
+        <v>0.2451822788609213</v>
       </c>
     </row>
     <row r="46">
@@ -2060,22 +2057,22 @@
         </is>
       </c>
       <c r="D46">
-        <v>25984387.06666441</v>
+        <v>1082343.5656904</v>
       </c>
       <c r="E46">
-        <v>162801.6506501515</v>
+        <v>31673.84415487001</v>
       </c>
       <c r="F46">
-        <v>25663349.28624985</v>
+        <v>1019884.121427594</v>
       </c>
       <c r="G46">
-        <v>26305424.84707896</v>
+        <v>1144803.009953206</v>
       </c>
       <c r="H46">
-        <v>26504377454.41396</v>
+        <v>1003232403.546993</v>
       </c>
       <c r="I46">
-        <v>0.006265364283270359</v>
+        <v>0.02926413124160447</v>
       </c>
     </row>
     <row r="47">
@@ -2093,22 +2090,22 @@
         </is>
       </c>
       <c r="D47">
-        <v>26502292.53612432</v>
+        <v>1168730.85163812</v>
       </c>
       <c r="E47">
-        <v>152765.918793604</v>
+        <v>32870.018508951</v>
       </c>
       <c r="F47">
-        <v>26201044.78282064</v>
+        <v>1103912.603529718</v>
       </c>
       <c r="G47">
-        <v>26803540.289428</v>
+        <v>1233549.099746522</v>
       </c>
       <c r="H47">
-        <v>23337425944.85402</v>
+        <v>1080438116.778781</v>
       </c>
       <c r="I47">
-        <v>0.005764252982468377</v>
+        <v>0.02812454078959208</v>
       </c>
     </row>
     <row r="48">
@@ -2126,22 +2123,22 @@
         </is>
       </c>
       <c r="D48">
-        <v>26468008.48028037</v>
+        <v>1205228.86636849</v>
       </c>
       <c r="E48">
-        <v>137869.3851774587</v>
+        <v>32970.37156162386</v>
       </c>
       <c r="F48">
-        <v>26196136.04392771</v>
+        <v>1140212.726401134</v>
       </c>
       <c r="G48">
-        <v>26739880.91663302</v>
+        <v>1270245.006335846</v>
       </c>
       <c r="H48">
-        <v>19007967369.21048</v>
+        <v>1087045400.911535</v>
       </c>
       <c r="I48">
-        <v>0.005208906642151654</v>
+        <v>0.02735610843853071</v>
       </c>
     </row>
     <row r="49">
@@ -2159,22 +2156,22 @@
         </is>
       </c>
       <c r="D49">
-        <v>26444452.99101443</v>
+        <v>1128206.2156396</v>
       </c>
       <c r="E49">
-        <v>156393.6946412401</v>
+        <v>35890.40689735198</v>
       </c>
       <c r="F49">
-        <v>26136051.42138692</v>
+        <v>1057431.892882509</v>
       </c>
       <c r="G49">
-        <v>26752854.56064193</v>
+        <v>1198980.538396691</v>
       </c>
       <c r="H49">
-        <v>24458987723.53747</v>
+        <v>1288121307.25749</v>
       </c>
       <c r="I49">
-        <v>0.005914045364991335</v>
+        <v>0.03181192090579386</v>
       </c>
     </row>
     <row r="50">
@@ -2192,22 +2189,22 @@
         </is>
       </c>
       <c r="D50">
-        <v>10040960.89243144</v>
+        <v>566129.6841726</v>
       </c>
       <c r="E50">
-        <v>91000.80498640789</v>
+        <v>20368.98885886956</v>
       </c>
       <c r="F50">
-        <v>9861511.259506315</v>
+        <v>525962.9232925612</v>
       </c>
       <c r="G50">
-        <v>10220410.52535656</v>
+        <v>606296.4450526389</v>
       </c>
       <c r="H50">
-        <v>8281146508.17424</v>
+        <v>414895707.1327523</v>
       </c>
       <c r="I50">
-        <v>0.009062957814625235</v>
+        <v>0.03597936908861949</v>
       </c>
     </row>
     <row r="51">
@@ -2225,22 +2222,22 @@
         </is>
       </c>
       <c r="D51">
-        <v>10211600.47761265</v>
+        <v>624572.2137614799</v>
       </c>
       <c r="E51">
-        <v>106108.4121665021</v>
+        <v>22871.09784203274</v>
       </c>
       <c r="F51">
-        <v>10002359.29984075</v>
+        <v>579471.4026976614</v>
       </c>
       <c r="G51">
-        <v>10420841.65538455</v>
+        <v>669673.0248252985</v>
       </c>
       <c r="H51">
-        <v>11258995132.49628</v>
+        <v>523087116.4998345</v>
       </c>
       <c r="I51">
-        <v>0.01039096784085201</v>
+        <v>0.03661882059128404</v>
       </c>
     </row>
     <row r="52">
@@ -2258,22 +2255,22 @@
         </is>
       </c>
       <c r="D52">
-        <v>10329639.61282903</v>
+        <v>641288.86611147</v>
       </c>
       <c r="E52">
-        <v>104608.5910796084</v>
+        <v>22352.12893064002</v>
       </c>
       <c r="F52">
-        <v>10123356.01706464</v>
+        <v>597211.4391887356</v>
       </c>
       <c r="G52">
-        <v>10535923.20859342</v>
+        <v>685366.2930342045</v>
       </c>
       <c r="H52">
-        <v>10942957327.66073</v>
+        <v>499617667.7319545</v>
       </c>
       <c r="I52">
-        <v>0.01012703201665317</v>
+        <v>0.03485500858010332</v>
       </c>
     </row>
     <row r="53">
@@ -2291,142 +2288,22 @@
         </is>
       </c>
       <c r="D53">
-        <v>10266107.36223507</v>
+        <v>576882.6624384</v>
       </c>
       <c r="E53">
-        <v>102702.7350300554</v>
+        <v>19928.17708210219</v>
       </c>
       <c r="F53">
-        <v>10063582.03178</v>
+        <v>537585.1632263408</v>
       </c>
       <c r="G53">
-        <v>10468632.69269014</v>
+        <v>616180.1616504592</v>
       </c>
       <c r="H53">
-        <v>10547851782.65376</v>
+        <v>397132241.8156229</v>
       </c>
       <c r="I53">
-        <v>0.0100040581504006</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>109980429.0031678</v>
-      </c>
-      <c r="E54">
-        <v>154478.4853020489</v>
-      </c>
-      <c r="F54">
-        <v>109675804.1431303</v>
-      </c>
-      <c r="G54">
-        <v>110285053.8632052</v>
-      </c>
-      <c r="H54">
-        <v>23863602421.21534</v>
-      </c>
-      <c r="I54">
-        <v>0.001404599770179106</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>110088825.005055</v>
-      </c>
-      <c r="E55">
-        <v>176371.2142933155</v>
-      </c>
-      <c r="F55">
-        <v>109741028.6348116</v>
-      </c>
-      <c r="G55">
-        <v>110436621.3752983</v>
-      </c>
-      <c r="H55">
-        <v>31106805231.29861</v>
-      </c>
-      <c r="I55">
-        <v>0.00160208099491676</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>110531641.6711278</v>
-      </c>
-      <c r="E56">
-        <v>153956.0298347783</v>
-      </c>
-      <c r="F56">
-        <v>110228047.0705681</v>
-      </c>
-      <c r="G56">
-        <v>110835236.2716875</v>
-      </c>
-      <c r="H56">
-        <v>23702459122.48715</v>
-      </c>
-      <c r="I56">
-        <v>0.001392868390508973</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>110765314.2076245</v>
-      </c>
-      <c r="E57">
-        <v>170922.0990786422</v>
-      </c>
-      <c r="F57">
-        <v>110428263.2557891</v>
-      </c>
-      <c r="G57">
-        <v>111102365.1594599</v>
-      </c>
-      <c r="H57">
-        <v>29214363953.44917</v>
-      </c>
-      <c r="I57">
-        <v>0.00154310128853385</v>
+        <v>0.0345445935190159</v>
       </c>
     </row>
   </sheetData>
@@ -2435,3798 +2312,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaH</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>71763376.62581338</v>
-      </c>
-      <c r="E2">
-        <v>19278733.01072587</v>
-      </c>
-      <c r="F2">
-        <v>33746552.90043022</v>
-      </c>
-      <c r="G2">
-        <v>109780200.3511965</v>
-      </c>
-      <c r="H2">
-        <v>371669546498851.4</v>
-      </c>
-      <c r="I2">
-        <v>0.2686430588578421</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>95273013.68535326</v>
-      </c>
-      <c r="E3">
-        <v>20516349.16632305</v>
-      </c>
-      <c r="F3">
-        <v>54815664.68266855</v>
-      </c>
-      <c r="G3">
-        <v>135730362.688038</v>
-      </c>
-      <c r="H3">
-        <v>420920583114484.6</v>
-      </c>
-      <c r="I3">
-        <v>0.2153427121984399</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>83499902.33526812</v>
-      </c>
-      <c r="E4">
-        <v>26356621.29029351</v>
-      </c>
-      <c r="F4">
-        <v>31525790.49750878</v>
-      </c>
-      <c r="G4">
-        <v>135474014.1730275</v>
-      </c>
-      <c r="H4">
-        <v>694671485839953.1</v>
-      </c>
-      <c r="I4">
-        <v>0.3156485283595497</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>189690136.9586287</v>
-      </c>
-      <c r="E5">
-        <v>38720281.69147465</v>
-      </c>
-      <c r="F5">
-        <v>113335424.0818539</v>
-      </c>
-      <c r="G5">
-        <v>266044849.8354034</v>
-      </c>
-      <c r="H5">
-        <v>1499260214267147</v>
-      </c>
-      <c r="I5">
-        <v>0.2041238533130456</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>64173963970081.19</v>
-      </c>
-      <c r="E6">
-        <v>733127129073.0419</v>
-      </c>
-      <c r="F6">
-        <v>62728269130137.1</v>
-      </c>
-      <c r="G6">
-        <v>65619658810025.27</v>
-      </c>
-      <c r="H6">
-        <v>5.374753873828806E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01142405866364802</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>64362432366951.89</v>
-      </c>
-      <c r="E7">
-        <v>770686599937.0923</v>
-      </c>
-      <c r="F7">
-        <v>62842671882638.81</v>
-      </c>
-      <c r="G7">
-        <v>65882192851264.97</v>
-      </c>
-      <c r="H7">
-        <v>5.939578353225957E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01197416834005198</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>63780151551502.64</v>
-      </c>
-      <c r="E8">
-        <v>766512889598.5449</v>
-      </c>
-      <c r="F8">
-        <v>62268621442605.47</v>
-      </c>
-      <c r="G8">
-        <v>65291681660399.81</v>
-      </c>
-      <c r="H8">
-        <v>5.875420099207111E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01201804747954516</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>62931424650228.14</v>
-      </c>
-      <c r="E9">
-        <v>777218310417.2173</v>
-      </c>
-      <c r="F9">
-        <v>61398783916688.62</v>
-      </c>
-      <c r="G9">
-        <v>64464065383767.66</v>
-      </c>
-      <c r="H9">
-        <v>6.04068302047794E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.01235024178678592</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>106672711225.8708</v>
-      </c>
-      <c r="E10">
-        <v>5337863736.822058</v>
-      </c>
-      <c r="F10">
-        <v>96146675897.72049</v>
-      </c>
-      <c r="G10">
-        <v>117198746554.0212</v>
-      </c>
-      <c r="H10">
-        <v>2.849278927287994E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.05003963689944622</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>111293159928.2894</v>
-      </c>
-      <c r="E11">
-        <v>5441028635.068851</v>
-      </c>
-      <c r="F11">
-        <v>100563687903.9042</v>
-      </c>
-      <c r="G11">
-        <v>122022631952.6745</v>
-      </c>
-      <c r="H11">
-        <v>2.960479260763921E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.04888915579874562</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>111793633565.9718</v>
-      </c>
-      <c r="E12">
-        <v>5869763719.45531</v>
-      </c>
-      <c r="F12">
-        <v>100218714586.1804</v>
-      </c>
-      <c r="G12">
-        <v>123368552545.7632</v>
-      </c>
-      <c r="H12">
-        <v>3.445412612223384E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.05250534875934091</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>100466998355.446</v>
-      </c>
-      <c r="E13">
-        <v>5793461011.960747</v>
-      </c>
-      <c r="F13">
-        <v>89042544999.0426</v>
-      </c>
-      <c r="G13">
-        <v>111891451711.8493</v>
-      </c>
-      <c r="H13">
-        <v>3.356419049710924E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.05766531405132503</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>53234083902197.2</v>
-      </c>
-      <c r="E14">
-        <v>632912197286.7046</v>
-      </c>
-      <c r="F14">
-        <v>51986008552820.92</v>
-      </c>
-      <c r="G14">
-        <v>54482159251573.47</v>
-      </c>
-      <c r="H14">
-        <v>4.005778494742845E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01188922868381664</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>52651933773496.83</v>
-      </c>
-      <c r="E15">
-        <v>581762253395.3091</v>
-      </c>
-      <c r="F15">
-        <v>51504723890715.3</v>
-      </c>
-      <c r="G15">
-        <v>53799143656278.35</v>
-      </c>
-      <c r="H15">
-        <v>3.384473194755878E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.0110492096244364</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>51674187565352.33</v>
-      </c>
-      <c r="E16">
-        <v>556680628200.9153</v>
-      </c>
-      <c r="F16">
-        <v>50576437557513.36</v>
-      </c>
-      <c r="G16">
-        <v>52771937573191.3</v>
-      </c>
-      <c r="H16">
-        <v>3.098933218141657E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.01077289560666786</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>49912489103949.27</v>
-      </c>
-      <c r="E17">
-        <v>610677908697.6084</v>
-      </c>
-      <c r="F17">
-        <v>48708258805463.05</v>
-      </c>
-      <c r="G17">
-        <v>51116719402435.48</v>
-      </c>
-      <c r="H17">
-        <v>3.729275081712845E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.01223497204128193</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>344458240274.5172</v>
-      </c>
-      <c r="E18">
-        <v>10315995737.4654</v>
-      </c>
-      <c r="F18">
-        <v>324115544969.5491</v>
-      </c>
-      <c r="G18">
-        <v>364800935579.4852</v>
-      </c>
-      <c r="H18">
-        <v>1.064197680554043E+20</v>
-      </c>
-      <c r="I18">
-        <v>0.02994846553603721</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>335033041594.6299</v>
-      </c>
-      <c r="E19">
-        <v>11324729511.94179</v>
-      </c>
-      <c r="F19">
-        <v>312701167121.6754</v>
-      </c>
-      <c r="G19">
-        <v>357364916067.5844</v>
-      </c>
-      <c r="H19">
-        <v>1.282494985186452E+20</v>
-      </c>
-      <c r="I19">
-        <v>0.03380182879288676</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>332232903253.8467</v>
-      </c>
-      <c r="E20">
-        <v>8987971269.215107</v>
-      </c>
-      <c r="F20">
-        <v>314509014489.9713</v>
-      </c>
-      <c r="G20">
-        <v>349956792017.7221</v>
-      </c>
-      <c r="H20">
-        <v>8.078362753623622E+19</v>
-      </c>
-      <c r="I20">
-        <v>0.02705322435312115</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>299377344253.9349</v>
-      </c>
-      <c r="E21">
-        <v>9177221390.723516</v>
-      </c>
-      <c r="F21">
-        <v>281280262474.4505</v>
-      </c>
-      <c r="G21">
-        <v>317474426033.4193</v>
-      </c>
-      <c r="H21">
-        <v>8.422139245435327E+19</v>
-      </c>
-      <c r="I21">
-        <v>0.03065436168389317</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>24944963970948.52</v>
-      </c>
-      <c r="E22">
-        <v>282124264295.28</v>
-      </c>
-      <c r="F22">
-        <v>24388627181679.23</v>
-      </c>
-      <c r="G22">
-        <v>25501300760217.8</v>
-      </c>
-      <c r="H22">
-        <v>7.959410050415298E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.0113098685820452</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>23364541940052.77</v>
-      </c>
-      <c r="E23">
-        <v>264282494061.6912</v>
-      </c>
-      <c r="F23">
-        <v>22843388346356.64</v>
-      </c>
-      <c r="G23">
-        <v>23885695533748.89</v>
-      </c>
-      <c r="H23">
-        <v>6.984523666746784E+22</v>
-      </c>
-      <c r="I23">
-        <v>0.01131126365497642</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>23889442896531.57</v>
-      </c>
-      <c r="E24">
-        <v>301610912333.3387</v>
-      </c>
-      <c r="F24">
-        <v>23294679284138.11</v>
-      </c>
-      <c r="G24">
-        <v>24484206508925.04</v>
-      </c>
-      <c r="H24">
-        <v>9.096914243854895E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.01262528028132161</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>25887193636047.37</v>
-      </c>
-      <c r="E25">
-        <v>273951071399.2682</v>
-      </c>
-      <c r="F25">
-        <v>25346974027996.8</v>
-      </c>
-      <c r="G25">
-        <v>26427413244097.94</v>
-      </c>
-      <c r="H25">
-        <v>7.504918952080694E+22</v>
-      </c>
-      <c r="I25">
-        <v>0.01058249400266381</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>135324643399488.5</v>
-      </c>
-      <c r="E26">
-        <v>1004616389760.506</v>
-      </c>
-      <c r="F26">
-        <v>133343583535237.7</v>
-      </c>
-      <c r="G26">
-        <v>137305703263739.3</v>
-      </c>
-      <c r="H26">
-        <v>1.009254090575432E+24</v>
-      </c>
-      <c r="I26">
-        <v>0.007423750504886258</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>136392365072577.3</v>
-      </c>
-      <c r="E27">
-        <v>997807868520.9352</v>
-      </c>
-      <c r="F27">
-        <v>134424731316341.5</v>
-      </c>
-      <c r="G27">
-        <v>138359998828813</v>
-      </c>
-      <c r="H27">
-        <v>9.956205424822919E+23</v>
-      </c>
-      <c r="I27">
-        <v>0.00731571644783768</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>136588147900653.7</v>
-      </c>
-      <c r="E28">
-        <v>1032604758078.167</v>
-      </c>
-      <c r="F28">
-        <v>134551896190336</v>
-      </c>
-      <c r="G28">
-        <v>138624399610971.4</v>
-      </c>
-      <c r="H28">
-        <v>1.066272586405669E+24</v>
-      </c>
-      <c r="I28">
-        <v>0.007559987992729967</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>137555592365020.1</v>
-      </c>
-      <c r="E29">
-        <v>1111964732209.992</v>
-      </c>
-      <c r="F29">
-        <v>135362846234361.5</v>
-      </c>
-      <c r="G29">
-        <v>139748338495678.8</v>
-      </c>
-      <c r="H29">
-        <v>1.236465565678839E+24</v>
-      </c>
-      <c r="I29">
-        <v>0.008083747909421676</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>8040589456632.889</v>
-      </c>
-      <c r="E30">
-        <v>118210339713.4981</v>
-      </c>
-      <c r="F30">
-        <v>7807483803636.633</v>
-      </c>
-      <c r="G30">
-        <v>8273695109629.145</v>
-      </c>
-      <c r="H30">
-        <v>1.397368441518063E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01470170070876873</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>8005871652222.357</v>
-      </c>
-      <c r="E31">
-        <v>106357700364.8451</v>
-      </c>
-      <c r="F31">
-        <v>7796138888956.334</v>
-      </c>
-      <c r="G31">
-        <v>8215604415488.381</v>
-      </c>
-      <c r="H31">
-        <v>1.131196042689816E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01328496196105281</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>7981840550369.563</v>
-      </c>
-      <c r="E32">
-        <v>122673913571.668</v>
-      </c>
-      <c r="F32">
-        <v>7739932923692.938</v>
-      </c>
-      <c r="G32">
-        <v>8223748177046.188</v>
-      </c>
-      <c r="H32">
-        <v>1.504888907098907E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01536912605526656</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>8416147255575.857</v>
-      </c>
-      <c r="E33">
-        <v>126716273333.1847</v>
-      </c>
-      <c r="F33">
-        <v>8166268271113.29</v>
-      </c>
-      <c r="G33">
-        <v>8666026240038.425</v>
-      </c>
-      <c r="H33">
-        <v>1.605701392745037E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01505632797111917</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>515741124945.8026</v>
-      </c>
-      <c r="E34">
-        <v>14985873912.11359</v>
-      </c>
-      <c r="F34">
-        <v>486189632813.4786</v>
-      </c>
-      <c r="G34">
-        <v>545292617078.1266</v>
-      </c>
-      <c r="H34">
-        <v>2.245764169097666E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.02905696906309032</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>523165821523.0116</v>
-      </c>
-      <c r="E35">
-        <v>15189931198.10119</v>
-      </c>
-      <c r="F35">
-        <v>493211937290.1821</v>
-      </c>
-      <c r="G35">
-        <v>553119705755.8411</v>
-      </c>
-      <c r="H35">
-        <v>2.307340098030479E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.02903463982773396</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>545097330829.8106</v>
-      </c>
-      <c r="E36">
-        <v>15129041835.49676</v>
-      </c>
-      <c r="F36">
-        <v>515263517774.0443</v>
-      </c>
-      <c r="G36">
-        <v>574931143885.577</v>
-      </c>
-      <c r="H36">
-        <v>2.288879068602113E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.02775475310522173</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>495384574289.7252</v>
-      </c>
-      <c r="E37">
-        <v>15526858808.88367</v>
-      </c>
-      <c r="F37">
-        <v>464766283449.874</v>
-      </c>
-      <c r="G37">
-        <v>526002865129.5763</v>
-      </c>
-      <c r="H37">
-        <v>2.410833444710083E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.03134304056832177</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>491058730003.6771</v>
-      </c>
-      <c r="E38">
-        <v>14341481562.06299</v>
-      </c>
-      <c r="F38">
-        <v>462777951583.1012</v>
-      </c>
-      <c r="G38">
-        <v>519339508424.2531</v>
-      </c>
-      <c r="H38">
-        <v>2.056780933949927E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.02920522675964971</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>483507482075.0302</v>
-      </c>
-      <c r="E39">
-        <v>14384461950.92702</v>
-      </c>
-      <c r="F39">
-        <v>455141948195.3594</v>
-      </c>
-      <c r="G39">
-        <v>511873015954.701</v>
-      </c>
-      <c r="H39">
-        <v>2.069127456176672E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.02975023652001078</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>454987408428.2432</v>
-      </c>
-      <c r="E40">
-        <v>13034217684.96362</v>
-      </c>
-      <c r="F40">
-        <v>429284497565.1773</v>
-      </c>
-      <c r="G40">
-        <v>480690319291.3091</v>
-      </c>
-      <c r="H40">
-        <v>1.698908306590183E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.02864742505730082</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>454495031807.6204</v>
-      </c>
-      <c r="E41">
-        <v>14693262132.94581</v>
-      </c>
-      <c r="F41">
-        <v>425520557388.1515</v>
-      </c>
-      <c r="G41">
-        <v>483469506227.0894</v>
-      </c>
-      <c r="H41">
-        <v>2.158919521074592E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.03232876292290298</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>112650021846.9277</v>
-      </c>
-      <c r="E42">
-        <v>5015071758.994015</v>
-      </c>
-      <c r="F42">
-        <v>102760518271.8873</v>
-      </c>
-      <c r="G42">
-        <v>122539525421.968</v>
-      </c>
-      <c r="H42">
-        <v>2.515094474785932E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.04451904825911752</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>118660675577.1687</v>
-      </c>
-      <c r="E43">
-        <v>5037445669.370049</v>
-      </c>
-      <c r="F43">
-        <v>108727051623.1418</v>
-      </c>
-      <c r="G43">
-        <v>128594299531.1956</v>
-      </c>
-      <c r="H43">
-        <v>2.537585887185505E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.04245252814268737</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>116296773617.4399</v>
-      </c>
-      <c r="E44">
-        <v>4710357074.884764</v>
-      </c>
-      <c r="F44">
-        <v>107008154157.8584</v>
-      </c>
-      <c r="G44">
-        <v>125585393077.0215</v>
-      </c>
-      <c r="H44">
-        <v>2.218746377291695E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.04050290415088863</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>114527635019.8498</v>
-      </c>
-      <c r="E45">
-        <v>6346355946.263365</v>
-      </c>
-      <c r="F45">
-        <v>102012896879.4648</v>
-      </c>
-      <c r="G45">
-        <v>127042373160.2349</v>
-      </c>
-      <c r="H45">
-        <v>4.027623379667236E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.05541331526808721</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>263032830553787.6</v>
-      </c>
-      <c r="E46">
-        <v>1647996501879.205</v>
-      </c>
-      <c r="F46">
-        <v>259783053067002.9</v>
-      </c>
-      <c r="G46">
-        <v>266282608040572.3</v>
-      </c>
-      <c r="H46">
-        <v>2.715892470206095E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.006265364283270358</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>268275445715031.6</v>
-      </c>
-      <c r="E47">
-        <v>1546407538085.905</v>
-      </c>
-      <c r="F47">
-        <v>265225997250222.8</v>
-      </c>
-      <c r="G47">
-        <v>271324894179840.3</v>
-      </c>
-      <c r="H47">
-        <v>2.39137627384891E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005764252982468381</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>267928397611554.6</v>
-      </c>
-      <c r="E48">
-        <v>1395614009939.878</v>
-      </c>
-      <c r="F48">
-        <v>265176307431404.2</v>
-      </c>
-      <c r="G48">
-        <v>270680487791705</v>
-      </c>
-      <c r="H48">
-        <v>1.947738464740465E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.00520890664215166</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>267689951847919.5</v>
-      </c>
-      <c r="E49">
-        <v>1583130518980.942</v>
-      </c>
-      <c r="F49">
-        <v>264568087260610.4</v>
-      </c>
-      <c r="G49">
-        <v>270811816435228.7</v>
-      </c>
-      <c r="H49">
-        <v>2.506302240128866E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.005914045364991334</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>47637250434275.34</v>
-      </c>
-      <c r="E50">
-        <v>431734391090.5746</v>
-      </c>
-      <c r="F50">
-        <v>46785888976385.74</v>
-      </c>
-      <c r="G50">
-        <v>48488611892164.95</v>
-      </c>
-      <c r="H50">
-        <v>1.863945844503492E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.009062957814625225</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>48446814453133.88</v>
-      </c>
-      <c r="E51">
-        <v>503409290974.2385</v>
-      </c>
-      <c r="F51">
-        <v>47454113207360.09</v>
-      </c>
-      <c r="G51">
-        <v>49439515698907.66</v>
-      </c>
-      <c r="H51">
-        <v>2.534209142391855E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.01039096784085201</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>49006826578027.87</v>
-      </c>
-      <c r="E52">
-        <v>496293701790.2574</v>
-      </c>
-      <c r="F52">
-        <v>48028156964911.64</v>
-      </c>
-      <c r="G52">
-        <v>49985496191144.09</v>
-      </c>
-      <c r="H52">
-        <v>2.463074384366769E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.01012703201665316</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>48705411029792.95</v>
-      </c>
-      <c r="E53">
-        <v>487251764181.2112</v>
-      </c>
-      <c r="F53">
-        <v>47744571724717.59</v>
-      </c>
-      <c r="G53">
-        <v>49666250334868.3</v>
-      </c>
-      <c r="H53">
-        <v>2.374142816977026E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.0100040581504006</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>4114822178160718</v>
-      </c>
-      <c r="E54">
-        <v>5779678285772.447</v>
-      </c>
-      <c r="F54">
-        <v>4103424903741420</v>
-      </c>
-      <c r="G54">
-        <v>4126219452580017</v>
-      </c>
-      <c r="H54">
-        <v>3.340468108702953E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.00140459977017911</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>4118877720375202</v>
-      </c>
-      <c r="E55">
-        <v>6598775716199.167</v>
-      </c>
-      <c r="F55">
-        <v>4105865221417594</v>
-      </c>
-      <c r="G55">
-        <v>4131890219332811</v>
-      </c>
-      <c r="H55">
-        <v>4.354384095269983E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001602080994916757</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>4135445321128635</v>
-      </c>
-      <c r="E56">
-        <v>5760131068478.315</v>
-      </c>
-      <c r="F56">
-        <v>4124086592972402</v>
-      </c>
-      <c r="G56">
-        <v>4146804049284869</v>
-      </c>
-      <c r="H56">
-        <v>3.317910992604914E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001392868390508976</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4144187976020225</v>
-      </c>
-      <c r="E57">
-        <v>6394901805723.316</v>
-      </c>
-      <c r="F57">
-        <v>4131577507554581</v>
-      </c>
-      <c r="G57">
-        <v>4156798444485868</v>
-      </c>
-      <c r="H57">
-        <v>4.089476910484334E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001543101288533855</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>69719091.98879693</v>
-      </c>
-      <c r="E2">
-        <v>18729550.13266169</v>
-      </c>
-      <c r="F2">
-        <v>32785233.03380346</v>
-      </c>
-      <c r="G2">
-        <v>106652950.9437904</v>
-      </c>
-      <c r="H2">
-        <v>350796048171887.4</v>
-      </c>
-      <c r="I2">
-        <v>0.2686430588578421</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>92559022.68664701</v>
-      </c>
-      <c r="E3">
-        <v>19931910.98377949</v>
-      </c>
-      <c r="F3">
-        <v>53254160.38273966</v>
-      </c>
-      <c r="G3">
-        <v>131863884.9905544</v>
-      </c>
-      <c r="H3">
-        <v>397281075465309.6</v>
-      </c>
-      <c r="I3">
-        <v>0.2153427121984399</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>81121285.61512119</v>
-      </c>
-      <c r="E4">
-        <v>25605814.42304771</v>
-      </c>
-      <c r="F4">
-        <v>30627732.29269636</v>
-      </c>
-      <c r="G4">
-        <v>131614838.937546</v>
-      </c>
-      <c r="H4">
-        <v>655657732267558.1</v>
-      </c>
-      <c r="I4">
-        <v>0.3156485283595497</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>184286536.2501499</v>
-      </c>
-      <c r="E5">
-        <v>37617277.89309488</v>
-      </c>
-      <c r="F5">
-        <v>110106898.9319247</v>
-      </c>
-      <c r="G5">
-        <v>258466173.5683751</v>
-      </c>
-      <c r="H5">
-        <v>1415059596086325</v>
-      </c>
-      <c r="I5">
-        <v>0.2041238533130457</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>61050635613314.88</v>
-      </c>
-      <c r="E6">
-        <v>697446042699.5078</v>
-      </c>
-      <c r="F6">
-        <v>59675302325151.1</v>
-      </c>
-      <c r="G6">
-        <v>62425968901478.66</v>
-      </c>
-      <c r="H6">
-        <v>4.864309824772037E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01142405866364801</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>61229931307552.24</v>
-      </c>
-      <c r="E7">
-        <v>733177504926.4497</v>
-      </c>
-      <c r="F7">
-        <v>59784137128614.36</v>
-      </c>
-      <c r="G7">
-        <v>62675725486490.13</v>
-      </c>
-      <c r="H7">
-        <v>5.375492537301742E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01197416834005198</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>60675989931806.94</v>
-      </c>
-      <c r="E8">
-        <v>729206927868.8599</v>
-      </c>
-      <c r="F8">
-        <v>59238025558282.23</v>
-      </c>
-      <c r="G8">
-        <v>62113954305331.65</v>
-      </c>
-      <c r="H8">
-        <v>5.317427436519406E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01201804747954516</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>59868570324548.7</v>
-      </c>
-      <c r="E9">
-        <v>739391318937.3727</v>
-      </c>
-      <c r="F9">
-        <v>58410522774407.22</v>
-      </c>
-      <c r="G9">
-        <v>61326617874690.19</v>
-      </c>
-      <c r="H9">
-        <v>5.466995225199476E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.01235024178678592</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>102569644108.3626</v>
-      </c>
-      <c r="E10">
-        <v>5132547748.087885</v>
-      </c>
-      <c r="F10">
-        <v>92448482987.83609</v>
-      </c>
-      <c r="G10">
-        <v>112690805228.8891</v>
-      </c>
-      <c r="H10">
-        <v>2.634304638640202E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.0500396368994462</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>107012371527.4166</v>
-      </c>
-      <c r="E11">
-        <v>5231744503.997121</v>
-      </c>
-      <c r="F11">
-        <v>96695598714.90637</v>
-      </c>
-      <c r="G11">
-        <v>117329144339.9269</v>
-      </c>
-      <c r="H11">
-        <v>2.737115055510408E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.04888915579874561</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>107493594909.7868</v>
-      </c>
-      <c r="E12">
-        <v>5643988690.133667</v>
-      </c>
-      <c r="F12">
-        <v>96363894476.5948</v>
-      </c>
-      <c r="G12">
-        <v>118623295342.9787</v>
-      </c>
-      <c r="H12">
-        <v>3.185460833435675E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.05250534875934092</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>96602628240.44872</v>
-      </c>
-      <c r="E13">
-        <v>5570620895.668875</v>
-      </c>
-      <c r="F13">
-        <v>85617605909.68892</v>
-      </c>
-      <c r="G13">
-        <v>107587650571.2085</v>
-      </c>
-      <c r="H13">
-        <v>3.10318171632627E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.05766531405132502</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>51282164654283.15</v>
-      </c>
-      <c r="E14">
-        <v>609705382975.911</v>
-      </c>
-      <c r="F14">
-        <v>50079852134258.28</v>
-      </c>
-      <c r="G14">
-        <v>52484477174308.02</v>
-      </c>
-      <c r="H14">
-        <v>3.717406540298023E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01188922868381664</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>50721360061339.04</v>
-      </c>
-      <c r="E15">
-        <v>560430939754.2512</v>
-      </c>
-      <c r="F15">
-        <v>49616214602089.48</v>
-      </c>
-      <c r="G15">
-        <v>51826505520588.59</v>
-      </c>
-      <c r="H15">
-        <v>3.140828382338332E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.0110492096244364</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>49779464599621.55</v>
-      </c>
-      <c r="E16">
-        <v>536268975487.5413</v>
-      </c>
-      <c r="F16">
-        <v>48721965483929.72</v>
-      </c>
-      <c r="G16">
-        <v>50836963715313.39</v>
-      </c>
-      <c r="H16">
-        <v>2.875844140704572E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.01077289560666786</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>48082361842394.62</v>
-      </c>
-      <c r="E17">
-        <v>588286352820.4996</v>
-      </c>
-      <c r="F17">
-        <v>46922286719056.23</v>
-      </c>
-      <c r="G17">
-        <v>49242436965733</v>
-      </c>
-      <c r="H17">
-        <v>3.460808329148454E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.01223497204128194</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>334072101668.0235</v>
-      </c>
-      <c r="E18">
-        <v>10004946823.35633</v>
-      </c>
-      <c r="F18">
-        <v>314342781304.8152</v>
-      </c>
-      <c r="G18">
-        <v>353801422031.2318</v>
-      </c>
-      <c r="H18">
-        <v>1.000989609381878E+20</v>
-      </c>
-      <c r="I18">
-        <v>0.02994846553603722</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>324931092502.0961</v>
-      </c>
-      <c r="E19">
-        <v>10983265158.2415</v>
-      </c>
-      <c r="F19">
-        <v>303272570896.0495</v>
-      </c>
-      <c r="G19">
-        <v>346589614108.1426</v>
-      </c>
-      <c r="H19">
-        <v>1.206321135362417E+20</v>
-      </c>
-      <c r="I19">
-        <v>0.03380182879288675</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>322215384206.8869</v>
-      </c>
-      <c r="E20">
-        <v>8716965078.97604</v>
-      </c>
-      <c r="F20">
-        <v>305025907873.3861</v>
-      </c>
-      <c r="G20">
-        <v>339404860540.3877</v>
-      </c>
-      <c r="H20">
-        <v>7.598548018808776E+19</v>
-      </c>
-      <c r="I20">
-        <v>0.02705322435312115</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>290350489240.7197</v>
-      </c>
-      <c r="E21">
-        <v>8900508912.280354</v>
-      </c>
-      <c r="F21">
-        <v>272799072443.9774</v>
-      </c>
-      <c r="G21">
-        <v>307901906037.462</v>
-      </c>
-      <c r="H21">
-        <v>7.9219058897582E+19</v>
-      </c>
-      <c r="I21">
-        <v>0.03065436168389317</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>23738581071560.85</v>
-      </c>
-      <c r="E22">
-        <v>268480232243.579</v>
-      </c>
-      <c r="F22">
-        <v>23209149720585.89</v>
-      </c>
-      <c r="G22">
-        <v>24268012422535.8</v>
-      </c>
-      <c r="H22">
-        <v>7.208163510556612E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.0113098685820452</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>22234591065746.74</v>
-      </c>
-      <c r="E23">
-        <v>251501321805.2446</v>
-      </c>
-      <c r="F23">
-        <v>21738641388324.93</v>
-      </c>
-      <c r="G23">
-        <v>22730540743168.56</v>
-      </c>
-      <c r="H23">
-        <v>6.325291486978518E+22</v>
-      </c>
-      <c r="I23">
-        <v>0.01131126365497642</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>22734106876810.8</v>
-      </c>
-      <c r="E24">
-        <v>287024471265.2574</v>
-      </c>
-      <c r="F24">
-        <v>22168107092338.88</v>
-      </c>
-      <c r="G24">
-        <v>23300106661282.72</v>
-      </c>
-      <c r="H24">
-        <v>8.23830471051006E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.01262528028132161</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>24635242831386.53</v>
-      </c>
-      <c r="E25">
-        <v>260702309517.3149</v>
-      </c>
-      <c r="F25">
-        <v>24121149206032.31</v>
-      </c>
-      <c r="G25">
-        <v>25149336456740.74</v>
-      </c>
-      <c r="H25">
-        <v>6.796569418766185E+22</v>
-      </c>
-      <c r="I25">
-        <v>0.01058249400266382</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>132095306847001</v>
-      </c>
-      <c r="E26">
-        <v>980642600898.5282</v>
-      </c>
-      <c r="F26">
-        <v>130161522252587.1</v>
-      </c>
-      <c r="G26">
-        <v>134029091441414.9</v>
-      </c>
-      <c r="H26">
-        <v>9.6165991069703E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.007423750504886255</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>133137548810406.6</v>
-      </c>
-      <c r="E27">
-        <v>973996555657.0835</v>
-      </c>
-      <c r="F27">
-        <v>131216869928400</v>
-      </c>
-      <c r="G27">
-        <v>135058227692413.3</v>
-      </c>
-      <c r="H27">
-        <v>9.486692904318622E+23</v>
-      </c>
-      <c r="I27">
-        <v>0.007315716447837677</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>133328659550479.2</v>
-      </c>
-      <c r="E28">
-        <v>1007963065288.404</v>
-      </c>
-      <c r="F28">
-        <v>131341000187519.6</v>
-      </c>
-      <c r="G28">
-        <v>135316318913438.7</v>
-      </c>
-      <c r="H28">
-        <v>1.015989540985595E+24</v>
-      </c>
-      <c r="I28">
-        <v>0.007559987992729965</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>134273017282874.3</v>
-      </c>
-      <c r="E29">
-        <v>1085429222752.174</v>
-      </c>
-      <c r="F29">
-        <v>132132598023746</v>
-      </c>
-      <c r="G29">
-        <v>136413436542002.5</v>
-      </c>
-      <c r="H29">
-        <v>1.178156597604389E+24</v>
-      </c>
-      <c r="I29">
-        <v>0.008083747909421667</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>7758541071888.827</v>
-      </c>
-      <c r="E30">
-        <v>114063748775.5993</v>
-      </c>
-      <c r="F30">
-        <v>7533612316028.896</v>
-      </c>
-      <c r="G30">
-        <v>7983469827748.758</v>
-      </c>
-      <c r="H30">
-        <v>1.301053878474302E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01470170070876873</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>7725041101159.354</v>
-      </c>
-      <c r="E31">
-        <v>102626877176.4716</v>
-      </c>
-      <c r="F31">
-        <v>7522665359095.091</v>
-      </c>
-      <c r="G31">
-        <v>7927416843223.618</v>
-      </c>
-      <c r="H31">
-        <v>1.053227591899459E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01328496196105282</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>7701852964054.077</v>
-      </c>
-      <c r="E32">
-        <v>118370749063.6755</v>
-      </c>
-      <c r="F32">
-        <v>7468430990789.98</v>
-      </c>
-      <c r="G32">
-        <v>7935274937318.174</v>
-      </c>
-      <c r="H32">
-        <v>1.401163423389562E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01536912605526656</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>8120925026906.396</v>
-      </c>
-      <c r="E33">
-        <v>122271310633.9724</v>
-      </c>
-      <c r="F33">
-        <v>7879811315727.496</v>
-      </c>
-      <c r="G33">
-        <v>8362038738085.297</v>
-      </c>
-      <c r="H33">
-        <v>1.495027340414938E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01505632797111917</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>503505928025.0257</v>
-      </c>
-      <c r="E34">
-        <v>14630356173.70576</v>
-      </c>
-      <c r="F34">
-        <v>474655501423.5526</v>
-      </c>
-      <c r="G34">
-        <v>532356354626.4988</v>
-      </c>
-      <c r="H34">
-        <v>2.140473217694901E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.02905696906309032</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>510754484635.2915</v>
-      </c>
-      <c r="E35">
-        <v>14829572501.78557</v>
-      </c>
-      <c r="F35">
-        <v>481511212091.9396</v>
-      </c>
-      <c r="G35">
-        <v>539997757178.6434</v>
-      </c>
-      <c r="H35">
-        <v>2.199162205857148E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.02903463982773397</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>532165701256.1685</v>
-      </c>
-      <c r="E36">
-        <v>14770127649.43214</v>
-      </c>
-      <c r="F36">
-        <v>503039651378.437</v>
-      </c>
-      <c r="G36">
-        <v>561291751133.8999</v>
-      </c>
-      <c r="H36">
-        <v>2.181566707805199E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.02775475310522173</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>483632306485.6268</v>
-      </c>
-      <c r="E37">
-        <v>15158507002.33003</v>
-      </c>
-      <c r="F37">
-        <v>453740389401.2961</v>
-      </c>
-      <c r="G37">
-        <v>513524223569.9575</v>
-      </c>
-      <c r="H37">
-        <v>2.297803345396886E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.03134304056832178</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>474815979461.1609</v>
-      </c>
-      <c r="E38">
-        <v>13867108349.26838</v>
-      </c>
-      <c r="F38">
-        <v>447470644401.973</v>
-      </c>
-      <c r="G38">
-        <v>502161314520.3489</v>
-      </c>
-      <c r="H38">
-        <v>1.92296693970349E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.02920522675964971</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>467514504174.5538</v>
-      </c>
-      <c r="E39">
-        <v>13908667075.72854</v>
-      </c>
-      <c r="F39">
-        <v>440087217112.7521</v>
-      </c>
-      <c r="G39">
-        <v>494941791236.3556</v>
-      </c>
-      <c r="H39">
-        <v>1.934510198234552E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.02975023652001078</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>439937789057.8056</v>
-      </c>
-      <c r="E40">
-        <v>12603084841.90809</v>
-      </c>
-      <c r="F40">
-        <v>415085053426.0449</v>
-      </c>
-      <c r="G40">
-        <v>464790524689.5663</v>
-      </c>
-      <c r="H40">
-        <v>1.588377475323336E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.0286474250573008</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>439461698779.5958</v>
-      </c>
-      <c r="E41">
-        <v>14207253073.54176</v>
-      </c>
-      <c r="F41">
-        <v>411445613105.3843</v>
-      </c>
-      <c r="G41">
-        <v>467477784453.8073</v>
-      </c>
-      <c r="H41">
-        <v>2.018460398956617E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.03232876292290299</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>109839441622.6143</v>
-      </c>
-      <c r="E42">
-        <v>4889947402.351686</v>
-      </c>
-      <c r="F42">
-        <v>100196677841.5</v>
-      </c>
-      <c r="G42">
-        <v>119482205403.7285</v>
-      </c>
-      <c r="H42">
-        <v>2.3911585597766E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.04451904825911752</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>115700131560.284</v>
-      </c>
-      <c r="E43">
-        <v>4911763091.175584</v>
-      </c>
-      <c r="F43">
-        <v>106014348188.826</v>
-      </c>
-      <c r="G43">
-        <v>125385914931.7419</v>
-      </c>
-      <c r="H43">
-        <v>2.412541666383473E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.04245252814268736</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>113395208160.8014</v>
-      </c>
-      <c r="E44">
-        <v>4592835247.307002</v>
-      </c>
-      <c r="F44">
-        <v>104338336638.2042</v>
-      </c>
-      <c r="G44">
-        <v>122452079683.3985</v>
-      </c>
-      <c r="H44">
-        <v>2.109413560890557E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.04050290415088863</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>111670208977.2561</v>
-      </c>
-      <c r="E45">
-        <v>6188016496.109873</v>
-      </c>
-      <c r="F45">
-        <v>99467709351.81439</v>
-      </c>
-      <c r="G45">
-        <v>123872708602.6977</v>
-      </c>
-      <c r="H45">
-        <v>3.82915481561279E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.05541331526808721</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>255380532500203.2</v>
-      </c>
-      <c r="E46">
-        <v>1600052066969.34</v>
-      </c>
-      <c r="F46">
-        <v>252225299355599.4</v>
-      </c>
-      <c r="G46">
-        <v>258535765644806.9</v>
-      </c>
-      <c r="H46">
-        <v>2.560166617012857E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.006265364283270366</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>260470626572313.1</v>
-      </c>
-      <c r="E47">
-        <v>1501418586064.863</v>
-      </c>
-      <c r="F47">
-        <v>257509894365861.3</v>
-      </c>
-      <c r="G47">
-        <v>263431358778764.9</v>
-      </c>
-      <c r="H47">
-        <v>2.254257770581013E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005764252982468378</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>260133674986145.9</v>
-      </c>
-      <c r="E48">
-        <v>1355012027482.656</v>
-      </c>
-      <c r="F48">
-        <v>257461650151011.7</v>
-      </c>
-      <c r="G48">
-        <v>262805699821280.2</v>
-      </c>
-      <c r="H48">
-        <v>1.836057594622659E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.005208906642151659</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>259902166219877.8</v>
-      </c>
-      <c r="E49">
-        <v>1537073201483.876</v>
-      </c>
-      <c r="F49">
-        <v>256871124661217.6</v>
-      </c>
-      <c r="G49">
-        <v>262933207778537.9</v>
-      </c>
-      <c r="H49">
-        <v>2.362594026719893E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.005914045364991338</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>44955470435281.18</v>
-      </c>
-      <c r="E50">
-        <v>407429532091.5853</v>
-      </c>
-      <c r="F50">
-        <v>44152037103151.75</v>
-      </c>
-      <c r="G50">
-        <v>45758903767410.61</v>
-      </c>
-      <c r="H50">
-        <v>1.659988236203681E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.009062957814625235</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>45719459351171.18</v>
-      </c>
-      <c r="E51">
-        <v>475069431819.1603</v>
-      </c>
-      <c r="F51">
-        <v>44782643076121.42</v>
-      </c>
-      <c r="G51">
-        <v>46656275626220.94</v>
-      </c>
-      <c r="H51">
-        <v>2.256909650489798E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.01039096784085201</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>46247945111675.04</v>
-      </c>
-      <c r="E52">
-        <v>468354420850.3513</v>
-      </c>
-      <c r="F52">
-        <v>45324370546449.95</v>
-      </c>
-      <c r="G52">
-        <v>47171519676900.13</v>
-      </c>
-      <c r="H52">
-        <v>2.19355863530068E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.01012703201665316</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>45963498011057.75</v>
-      </c>
-      <c r="E53">
-        <v>459821506898.444</v>
-      </c>
-      <c r="F53">
-        <v>45056749981341.66</v>
-      </c>
-      <c r="G53">
-        <v>46870246040773.84</v>
-      </c>
-      <c r="H53">
-        <v>2.114358182063558E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.0100040581504006</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>3975671969914327</v>
-      </c>
-      <c r="E54">
-        <v>5584227935249.178</v>
-      </c>
-      <c r="F54">
-        <v>3964660115092819</v>
-      </c>
-      <c r="G54">
-        <v>3986683824735835</v>
-      </c>
-      <c r="H54">
-        <v>3.11836016328173E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001404599770179106</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>3979590366580531</v>
-      </c>
-      <c r="E55">
-        <v>6375626093852.479</v>
-      </c>
-      <c r="F55">
-        <v>3967017908981057</v>
-      </c>
-      <c r="G55">
-        <v>3992162824180006</v>
-      </c>
-      <c r="H55">
-        <v>4.064860808861262E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001602080994916757</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>3995597703731999</v>
-      </c>
-      <c r="E56">
-        <v>5565341742718.57</v>
-      </c>
-      <c r="F56">
-        <v>3984623091661448</v>
-      </c>
-      <c r="G56">
-        <v>4006572315802551</v>
-      </c>
-      <c r="H56">
-        <v>3.097302871324577E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001392868390508981</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4004044709821255</v>
-      </c>
-      <c r="E57">
-        <v>6178646551072.319</v>
-      </c>
-      <c r="F57">
-        <v>3991860687320249</v>
-      </c>
-      <c r="G57">
-        <v>4016228732322260</v>
-      </c>
-      <c r="H57">
-        <v>3.817567320307787E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001543101288533849</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I53"/>
   <sheetViews>
@@ -6252,32 +2337,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>Qtd_horasHabituais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>freq_se</t>
+          <t>Qtd_horasHabituais_se</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>freq_low</t>
+          <t>Qtd_horasHabituais_low</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>freq_upp</t>
+          <t>Qtd_horasHabituais_upp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>freq_var</t>
+          <t>Qtd_horasHabituais_var</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>freq_cv</t>
+          <t>Qtd_horasHabituais_cv</t>
         </is>
       </c>
     </row>
@@ -6296,22 +2381,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>311.92309406</v>
+        <v>6238.4618812</v>
       </c>
       <c r="E2">
-        <v>302.0334000949636</v>
+        <v>6040.668001899273</v>
       </c>
       <c r="F2">
-        <v>-283.6736458398712</v>
+        <v>-5673.472916797425</v>
       </c>
       <c r="G2">
-        <v>907.5198339598712</v>
+        <v>18150.39667919742</v>
       </c>
       <c r="H2">
-        <v>91224.17477292437</v>
+        <v>36489669.90916976</v>
       </c>
       <c r="I2">
-        <v>0.9682944477232774</v>
+        <v>0.9682944477232776</v>
       </c>
     </row>
     <row r="3">
@@ -6329,22 +2414,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>1298.29135063</v>
+        <v>31158.99241512</v>
       </c>
       <c r="E3">
-        <v>900.4099894752995</v>
+        <v>21609.83974740719</v>
       </c>
       <c r="F3">
-        <v>-477.2780206254679</v>
+        <v>-11454.67249501124</v>
       </c>
       <c r="G3">
-        <v>3073.860721885468</v>
+        <v>73772.65732525123</v>
       </c>
       <c r="H3">
-        <v>810738.149146909</v>
+        <v>466985173.9086196</v>
       </c>
       <c r="I3">
-        <v>0.6935346130422672</v>
+        <v>0.6935346130422673</v>
       </c>
     </row>
     <row r="4">
@@ -6362,22 +2447,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>999.40974979</v>
+        <v>20489.20973768</v>
       </c>
       <c r="E4">
-        <v>846.2436649667532</v>
+        <v>19511.46440381778</v>
       </c>
       <c r="F4">
-        <v>-669.3459833727759</v>
+        <v>-17986.55018136357</v>
       </c>
       <c r="G4">
-        <v>2668.165482952776</v>
+        <v>58964.96965672357</v>
       </c>
       <c r="H4">
-        <v>716128.3404963624</v>
+        <v>380697243.1814482</v>
       </c>
       <c r="I4">
-        <v>0.84674345546916</v>
+        <v>0.9522799880336948</v>
       </c>
     </row>
     <row r="5">
@@ -6395,19 +2480,19 @@
         </is>
       </c>
       <c r="D5">
-        <v>517.09612724</v>
+        <v>1034.19225448</v>
       </c>
       <c r="E5">
-        <v>510.3332937450715</v>
+        <v>1020.666587490143</v>
       </c>
       <c r="F5">
-        <v>-489.2589511101454</v>
+        <v>-978.5179022202908</v>
       </c>
       <c r="G5">
-        <v>1523.451205590145</v>
+        <v>3046.902411180291</v>
       </c>
       <c r="H5">
-        <v>260440.0707046934</v>
+        <v>1041760.282818774</v>
       </c>
       <c r="I5">
         <v>0.9869215158678037</v>
@@ -6428,22 +2513,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>386772.4402862</v>
+        <v>6537472.19349361</v>
       </c>
       <c r="E6">
-        <v>16702.19706846356</v>
+        <v>294844.316844466</v>
       </c>
       <c r="F6">
-        <v>353836.4334736609</v>
+        <v>5956052.013356728</v>
       </c>
       <c r="G6">
-        <v>419708.4470987392</v>
+        <v>7118892.373630492</v>
       </c>
       <c r="H6">
-        <v>278963386.9137926</v>
+        <v>86933171175.47984</v>
       </c>
       <c r="I6">
-        <v>0.04318352428654024</v>
+        <v>0.04510066094627652</v>
       </c>
     </row>
     <row r="7">
@@ -6461,22 +2546,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>389649.08838449</v>
+        <v>6465139.15055509</v>
       </c>
       <c r="E7">
-        <v>15265.06592827607</v>
+        <v>276737.3878720548</v>
       </c>
       <c r="F7">
-        <v>359547.0417287915</v>
+        <v>5919425.047501656</v>
       </c>
       <c r="G7">
-        <v>419751.1350401884</v>
+        <v>7010853.253608524</v>
       </c>
       <c r="H7">
-        <v>233022237.7946149</v>
+        <v>76583581846.24808</v>
       </c>
       <c r="I7">
-        <v>0.0391764446095999</v>
+        <v>0.04280455245086169</v>
       </c>
     </row>
     <row r="8">
@@ -6494,22 +2579,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>389306.12690102</v>
+        <v>6408845.85106432</v>
       </c>
       <c r="E8">
-        <v>14961.55772640629</v>
+        <v>289635.7099739715</v>
       </c>
       <c r="F8">
-        <v>359802.5852302327</v>
+        <v>5837696.817332144</v>
       </c>
       <c r="G8">
-        <v>418809.6685718073</v>
+        <v>6979994.884796496</v>
       </c>
       <c r="H8">
-        <v>223848209.6005877</v>
+        <v>83888844492.12653</v>
       </c>
       <c r="I8">
-        <v>0.03843134410830945</v>
+        <v>0.04519311537597234</v>
       </c>
     </row>
     <row r="9">
@@ -6527,22 +2612,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>324385.1794537</v>
+        <v>5211751.40679214</v>
       </c>
       <c r="E9">
-        <v>14971.18366480864</v>
+        <v>245819.5736485903</v>
       </c>
       <c r="F9">
-        <v>294862.6558506857</v>
+        <v>4727005.889830627</v>
       </c>
       <c r="G9">
-        <v>353907.7030567143</v>
+        <v>5696496.923753653</v>
       </c>
       <c r="H9">
-        <v>224136340.3254329</v>
+        <v>60427262788.77471</v>
       </c>
       <c r="I9">
-        <v>0.04615248973464737</v>
+        <v>0.04716640423950948</v>
       </c>
     </row>
     <row r="10">
@@ -6560,22 +2645,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>3106.75257545</v>
+        <v>96209.88553184</v>
       </c>
       <c r="E10">
-        <v>1446.065675954347</v>
+        <v>46336.06325014511</v>
       </c>
       <c r="F10">
-        <v>255.1739023339915</v>
+        <v>4837.182370853247</v>
       </c>
       <c r="G10">
-        <v>5958.331248566009</v>
+        <v>187582.5886928267</v>
       </c>
       <c r="H10">
-        <v>2091105.939173304</v>
+        <v>2147030757.521448</v>
       </c>
       <c r="I10">
-        <v>0.465458912750685</v>
+        <v>0.4816143683572985</v>
       </c>
     </row>
     <row r="11">
@@ -6593,22 +2678,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>2014.12225733</v>
+        <v>57457.36676775001</v>
       </c>
       <c r="E11">
-        <v>1340.983705619174</v>
+        <v>41082.62376181538</v>
       </c>
       <c r="F11">
-        <v>-630.2393367006944</v>
+        <v>-23555.78201439435</v>
       </c>
       <c r="G11">
-        <v>4658.483851360695</v>
+        <v>138470.5155498944</v>
       </c>
       <c r="H11">
-        <v>1798237.298736131</v>
+        <v>1687781975.154877</v>
       </c>
       <c r="I11">
-        <v>0.6657906195807769</v>
+        <v>0.7150105560506553</v>
       </c>
     </row>
     <row r="12">
@@ -6626,22 +2711,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>4180.8740638</v>
+        <v>90201.79630209001</v>
       </c>
       <c r="E12">
-        <v>1474.972013029934</v>
+        <v>39209.37200968096</v>
       </c>
       <c r="F12">
-        <v>1272.293350117441</v>
+        <v>12882.61857159817</v>
       </c>
       <c r="G12">
-        <v>7089.454777482559</v>
+        <v>167520.9740325818</v>
       </c>
       <c r="H12">
-        <v>2175542.439221577</v>
+        <v>1537374853.393553</v>
       </c>
       <c r="I12">
-        <v>0.3527903473106126</v>
+        <v>0.4346850463860715</v>
       </c>
     </row>
     <row r="13">
@@ -6659,22 +2744,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>545.67655254</v>
+        <v>6548.11863048</v>
       </c>
       <c r="E13">
-        <v>400.9388426174393</v>
+        <v>4811.266111409272</v>
       </c>
       <c r="F13">
-        <v>-244.9574220041827</v>
+        <v>-2939.489064050192</v>
       </c>
       <c r="G13">
-        <v>1336.310527084183</v>
+        <v>16035.72632501019</v>
       </c>
       <c r="H13">
-        <v>160751.9555194118</v>
+        <v>23148281.59479529</v>
       </c>
       <c r="I13">
-        <v>0.7347554897698286</v>
+        <v>0.7347554897698285</v>
       </c>
     </row>
     <row r="14">
@@ -6692,22 +2777,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>123985.10904174</v>
+        <v>2159537.17618857</v>
       </c>
       <c r="E14">
-        <v>8044.570300252884</v>
+        <v>157652.8365217708</v>
       </c>
       <c r="F14">
-        <v>108121.565992463</v>
+        <v>1848652.633489612</v>
       </c>
       <c r="G14">
-        <v>139848.652091017</v>
+        <v>2470421.718887527</v>
       </c>
       <c r="H14">
-        <v>64715111.31571078</v>
+        <v>24854416863.36018</v>
       </c>
       <c r="I14">
-        <v>0.06488335867450544</v>
+        <v>0.07300306670340209</v>
       </c>
     </row>
     <row r="15">
@@ -6725,22 +2810,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>118573.32635319</v>
+        <v>2012222.18424241</v>
       </c>
       <c r="E15">
-        <v>9200.830247095557</v>
+        <v>166841.4455115554</v>
       </c>
       <c r="F15">
-        <v>100429.6889348805</v>
+        <v>1683218.103913476</v>
       </c>
       <c r="G15">
-        <v>136716.9637714995</v>
+        <v>2341226.264571344</v>
       </c>
       <c r="H15">
-        <v>84655277.23586848</v>
+        <v>27836067940.38531</v>
       </c>
       <c r="I15">
-        <v>0.07759612157366137</v>
+        <v>0.0829140274956119</v>
       </c>
     </row>
     <row r="16">
@@ -6758,22 +2843,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>157683.12155571</v>
+        <v>2525190.66701169</v>
       </c>
       <c r="E16">
-        <v>22431.74420717991</v>
+        <v>285644.9884194678</v>
       </c>
       <c r="F16">
-        <v>113448.6967673803</v>
+        <v>1961911.162765204</v>
       </c>
       <c r="G16">
-        <v>201917.5463440398</v>
+        <v>3088470.171258175</v>
       </c>
       <c r="H16">
-        <v>503183148.1763492</v>
+        <v>81593059409.1579</v>
       </c>
       <c r="I16">
-        <v>0.1422583722713448</v>
+        <v>0.1131181863417466</v>
       </c>
     </row>
     <row r="17">
@@ -6791,22 +2876,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>115205.21647258</v>
+        <v>1846896.40929559</v>
       </c>
       <c r="E17">
-        <v>9788.81094116277</v>
+        <v>193298.6453271044</v>
       </c>
       <c r="F17">
-        <v>95902.10667671092</v>
+        <v>1465719.880647808</v>
       </c>
       <c r="G17">
-        <v>134508.3262684491</v>
+        <v>2228072.937943372</v>
       </c>
       <c r="H17">
-        <v>95820819.64182796</v>
+        <v>37364366285.29371</v>
       </c>
       <c r="I17">
-        <v>0.08496846966554336</v>
+        <v>0.1046613358249091</v>
       </c>
     </row>
     <row r="18">
@@ -6824,22 +2909,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>6249.99726035</v>
+        <v>85901.24790742001</v>
       </c>
       <c r="E18">
-        <v>1672.753534994015</v>
+        <v>27984.64217573606</v>
       </c>
       <c r="F18">
-        <v>2951.3999800983</v>
+        <v>30716.7496304337</v>
       </c>
       <c r="G18">
-        <v>9548.5945406017</v>
+        <v>141085.7461844063</v>
       </c>
       <c r="H18">
-        <v>2798104.388834975</v>
+        <v>783140197.7039855</v>
       </c>
       <c r="I18">
-        <v>0.26764068291773</v>
+        <v>0.3257768991423324</v>
       </c>
     </row>
     <row r="19">
@@ -6857,22 +2942,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>8988.573814560001</v>
+        <v>153637.32175175</v>
       </c>
       <c r="E19">
-        <v>2521.996622404881</v>
+        <v>49620.12968883305</v>
       </c>
       <c r="F19">
-        <v>4015.306070427881</v>
+        <v>55788.58228523501</v>
       </c>
       <c r="G19">
-        <v>13961.84155869212</v>
+        <v>251486.061218265</v>
       </c>
       <c r="H19">
-        <v>6360466.963421627</v>
+        <v>2462157270.336611</v>
       </c>
       <c r="I19">
-        <v>0.2805780621526036</v>
+        <v>0.3229692442114434</v>
       </c>
     </row>
     <row r="20">
@@ -6890,22 +2975,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>4277.34635755</v>
+        <v>81621.67107958</v>
       </c>
       <c r="E20">
-        <v>1165.363627808186</v>
+        <v>26597.71813491279</v>
       </c>
       <c r="F20">
-        <v>1979.299925260686</v>
+        <v>29172.12674127523</v>
       </c>
       <c r="G20">
-        <v>6575.392789839314</v>
+        <v>134071.2154178848</v>
       </c>
       <c r="H20">
-        <v>1358072.385018255</v>
+        <v>707438609.9842684</v>
       </c>
       <c r="I20">
-        <v>0.272450143241542</v>
+        <v>0.3258658856540732</v>
       </c>
     </row>
     <row r="21">
@@ -6923,22 +3008,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>3715.81995182</v>
+        <v>59340.06905351</v>
       </c>
       <c r="E21">
-        <v>1081.291660521057</v>
+        <v>18550.84743802084</v>
       </c>
       <c r="F21">
-        <v>1583.559785610658</v>
+        <v>22758.60404668897</v>
       </c>
       <c r="G21">
-        <v>5848.080118029342</v>
+        <v>95921.53406033103</v>
       </c>
       <c r="H21">
-        <v>1169191.655112385</v>
+        <v>344133940.6687242</v>
       </c>
       <c r="I21">
-        <v>0.2909967852429025</v>
+        <v>0.3126192425103614</v>
       </c>
     </row>
     <row r="22">
@@ -6956,22 +3041,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>90684.60777969001</v>
+        <v>1630151.64996487</v>
       </c>
       <c r="E22">
-        <v>9153.379110245663</v>
+        <v>171038.6038061437</v>
       </c>
       <c r="F22">
-        <v>72634.5419412238</v>
+        <v>1292870.955869662</v>
       </c>
       <c r="G22">
-        <v>108734.6736181562</v>
+        <v>1967432.344060078</v>
       </c>
       <c r="H22">
-        <v>83784349.13588169</v>
+        <v>29254203991.95498</v>
       </c>
       <c r="I22">
-        <v>0.10093641395553</v>
+        <v>0.104921897180443</v>
       </c>
     </row>
     <row r="23">
@@ -6989,22 +3074,22 @@
         </is>
       </c>
       <c r="D23">
-        <v>89741.62761537</v>
+        <v>1732442.47772112</v>
       </c>
       <c r="E23">
-        <v>7107.095590458989</v>
+        <v>153536.8561727576</v>
       </c>
       <c r="F23">
-        <v>75726.74395514163</v>
+        <v>1429674.469407411</v>
       </c>
       <c r="G23">
-        <v>103756.5112755984</v>
+        <v>2035210.486034829</v>
       </c>
       <c r="H23">
-        <v>50510807.73192161</v>
+        <v>23573566203.41406</v>
       </c>
       <c r="I23">
-        <v>0.07919508236378098</v>
+        <v>0.0886245045057555</v>
       </c>
     </row>
     <row r="24">
@@ -7022,22 +3107,22 @@
         </is>
       </c>
       <c r="D24">
-        <v>92740.49108127999</v>
+        <v>1740414.76946282</v>
       </c>
       <c r="E24">
-        <v>9492.385791005865</v>
+        <v>177470.3133243701</v>
       </c>
       <c r="F24">
-        <v>74021.91880014364</v>
+        <v>1390451.023692419</v>
       </c>
       <c r="G24">
-        <v>111459.0633624163</v>
+        <v>2090378.515233221</v>
       </c>
       <c r="H24">
-        <v>90105388.00529005</v>
+        <v>31495712111.45011</v>
       </c>
       <c r="I24">
-        <v>0.1023542756818757</v>
+        <v>0.1019701259942459</v>
       </c>
     </row>
     <row r="25">
@@ -7055,22 +3140,22 @@
         </is>
       </c>
       <c r="D25">
-        <v>74499.93255457</v>
+        <v>1449553.32749449</v>
       </c>
       <c r="E25">
-        <v>6871.46567332957</v>
+        <v>149580.1374208528</v>
       </c>
       <c r="F25">
-        <v>60949.70085144648</v>
+        <v>1154587.796617363</v>
       </c>
       <c r="G25">
-        <v>88050.16425769351</v>
+        <v>1744518.858371617</v>
       </c>
       <c r="H25">
-        <v>47217040.4997466</v>
+        <v>22374217510.84121</v>
       </c>
       <c r="I25">
-        <v>0.09223452206881304</v>
+        <v>0.1031905032975901</v>
       </c>
     </row>
     <row r="26">
@@ -7088,22 +3173,22 @@
         </is>
       </c>
       <c r="D26">
-        <v>355914.9696459</v>
+        <v>5959049.36245896</v>
       </c>
       <c r="E26">
-        <v>16458.35783655102</v>
+        <v>287195.8242395202</v>
       </c>
       <c r="F26">
-        <v>323459.8032024761</v>
+        <v>5392711.677368063</v>
       </c>
       <c r="G26">
-        <v>388370.1360893239</v>
+        <v>6525387.047549858</v>
       </c>
       <c r="H26">
-        <v>270877542.6759604</v>
+        <v>82481441460.61737</v>
       </c>
       <c r="I26">
-        <v>0.04624238719974451</v>
+        <v>0.04819490606149482</v>
       </c>
     </row>
     <row r="27">
@@ -7121,22 +3206,22 @@
         </is>
       </c>
       <c r="D27">
-        <v>364010.66393678</v>
+        <v>5806094.1116344</v>
       </c>
       <c r="E27">
-        <v>14243.69767216938</v>
+        <v>236747.3819882735</v>
       </c>
       <c r="F27">
-        <v>335922.7110978022</v>
+        <v>5339238.562388155</v>
       </c>
       <c r="G27">
-        <v>392098.6167757579</v>
+        <v>6272949.660880645</v>
       </c>
       <c r="H27">
-        <v>202882923.3761635</v>
+        <v>56049322878.30148</v>
       </c>
       <c r="I27">
-        <v>0.03912989119088877</v>
+        <v>0.04077567077562057</v>
       </c>
     </row>
     <row r="28">
@@ -7154,22 +3239,22 @@
         </is>
       </c>
       <c r="D28">
-        <v>393360.72774126</v>
+        <v>5893785.3582615</v>
       </c>
       <c r="E28">
-        <v>18372.23942281128</v>
+        <v>308617.0685855572</v>
       </c>
       <c r="F28">
-        <v>357131.4699788873</v>
+        <v>5285205.910196418</v>
       </c>
       <c r="G28">
-        <v>429589.9855036327</v>
+        <v>6502364.806326581</v>
       </c>
       <c r="H28">
-        <v>337539181.4091011</v>
+        <v>95244495022.34253</v>
       </c>
       <c r="I28">
-        <v>0.04670583036671609</v>
+        <v>0.05236313333890913</v>
       </c>
     </row>
     <row r="29">
@@ -7187,22 +3272,22 @@
         </is>
       </c>
       <c r="D29">
-        <v>334512.08918406</v>
+        <v>5236697.81081249</v>
       </c>
       <c r="E29">
-        <v>16702.54471540776</v>
+        <v>284313.9847587495</v>
       </c>
       <c r="F29">
-        <v>301575.3968268542</v>
+        <v>4676042.987945181</v>
       </c>
       <c r="G29">
-        <v>367448.7815412658</v>
+        <v>5797352.633679799</v>
       </c>
       <c r="H29">
-        <v>278974999.9701958</v>
+        <v>80834441929.39844</v>
       </c>
       <c r="I29">
-        <v>0.04993106454283466</v>
+        <v>0.05429260863052116</v>
       </c>
     </row>
     <row r="30">
@@ -7220,22 +3305,22 @@
         </is>
       </c>
       <c r="D30">
-        <v>81022.32667069</v>
+        <v>1518477.69396736</v>
       </c>
       <c r="E30">
-        <v>6690.816368713232</v>
+        <v>154694.6359149112</v>
       </c>
       <c r="F30">
-        <v>67828.32754601921</v>
+        <v>1213426.594314309</v>
       </c>
       <c r="G30">
-        <v>94216.3257953608</v>
+        <v>1823528.793620411</v>
       </c>
       <c r="H30">
-        <v>44767023.67984092</v>
+        <v>23930430380.84693</v>
       </c>
       <c r="I30">
-        <v>0.08257990906515955</v>
+        <v>0.1018748161592925</v>
       </c>
     </row>
     <row r="31">
@@ -7253,22 +3338,22 @@
         </is>
       </c>
       <c r="D31">
-        <v>91328.3653188</v>
+        <v>1573730.70180966</v>
       </c>
       <c r="E31">
-        <v>8652.217518058334</v>
+        <v>156898.0378968491</v>
       </c>
       <c r="F31">
-        <v>74266.56836177522</v>
+        <v>1264334.589198709</v>
       </c>
       <c r="G31">
-        <v>108390.1622758248</v>
+        <v>1883126.814420611</v>
       </c>
       <c r="H31">
-        <v>74860867.97979553</v>
+        <v>24616994295.8811</v>
       </c>
       <c r="I31">
-        <v>0.09473746177166351</v>
+        <v>0.09969814893769904</v>
       </c>
     </row>
     <row r="32">
@@ -7286,22 +3371,22 @@
         </is>
       </c>
       <c r="D32">
-        <v>77869.55937993</v>
+        <v>1330113.37600647</v>
       </c>
       <c r="E32">
-        <v>6771.552156605474</v>
+        <v>129696.5347964397</v>
       </c>
       <c r="F32">
-        <v>64516.35278996977</v>
+        <v>1074357.445447856</v>
       </c>
       <c r="G32">
-        <v>91222.76596989023</v>
+        <v>1585869.306565084</v>
       </c>
       <c r="H32">
-        <v>45853918.60962825</v>
+        <v>16821191138.20409</v>
       </c>
       <c r="I32">
-        <v>0.08696019613475257</v>
+        <v>0.09750787950561052</v>
       </c>
     </row>
     <row r="33">
@@ -7319,22 +3404,22 @@
         </is>
       </c>
       <c r="D33">
-        <v>69294.10848033</v>
+        <v>1374714.29383516</v>
       </c>
       <c r="E33">
-        <v>6441.54980504449</v>
+        <v>163920.4359645408</v>
       </c>
       <c r="F33">
-        <v>56591.65218714892</v>
+        <v>1051470.317398284</v>
       </c>
       <c r="G33">
-        <v>81996.56477351108</v>
+        <v>1697958.270272037</v>
       </c>
       <c r="H33">
-        <v>41493563.89086871</v>
+        <v>26869909326.80511</v>
       </c>
       <c r="I33">
-        <v>0.09295955956880525</v>
+        <v>0.1192396388832458</v>
       </c>
     </row>
     <row r="34">
@@ -7352,22 +3437,22 @@
         </is>
       </c>
       <c r="D34">
-        <v>31665.25950653</v>
+        <v>584507.06835448</v>
       </c>
       <c r="E34">
-        <v>5055.9488866693</v>
+        <v>102168.0233985592</v>
       </c>
       <c r="F34">
-        <v>21695.14801206012</v>
+        <v>383036.166000425</v>
       </c>
       <c r="G34">
-        <v>41635.37100099989</v>
+        <v>785977.9707085349</v>
       </c>
       <c r="H34">
-        <v>25562619.14461254</v>
+        <v>10438305005.16855</v>
       </c>
       <c r="I34">
-        <v>0.1596686389267286</v>
+        <v>0.1747934780090605</v>
       </c>
     </row>
     <row r="35">
@@ -7385,22 +3470,22 @@
         </is>
       </c>
       <c r="D35">
-        <v>24274.22110782</v>
+        <v>421608.55606637</v>
       </c>
       <c r="E35">
-        <v>3511.329153029097</v>
+        <v>65218.36660647869</v>
       </c>
       <c r="F35">
-        <v>17350.03260548231</v>
+        <v>293000.7712313144</v>
       </c>
       <c r="G35">
-        <v>31198.40961015769</v>
+        <v>550216.3409014256</v>
       </c>
       <c r="H35">
-        <v>12329432.42091204</v>
+        <v>4253435342.817055</v>
       </c>
       <c r="I35">
-        <v>0.144652598220666</v>
+        <v>0.1546893811049982</v>
       </c>
     </row>
     <row r="36">
@@ -7418,22 +3503,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>44253.67108381</v>
+        <v>705547.1499358601</v>
       </c>
       <c r="E36">
-        <v>8048.991827365425</v>
+        <v>142031.1839392898</v>
       </c>
       <c r="F36">
-        <v>28381.40897520788</v>
+        <v>425467.8272789532</v>
       </c>
       <c r="G36">
-        <v>60125.93319241211</v>
+        <v>985626.4725927669</v>
       </c>
       <c r="H36">
-        <v>64786269.4369954</v>
+        <v>20172857211.19637</v>
       </c>
       <c r="I36">
-        <v>0.1818830309494959</v>
+        <v>0.201306438488486</v>
       </c>
     </row>
     <row r="37">
@@ -7451,22 +3536,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>31563.79742605</v>
+        <v>408466.88440356</v>
       </c>
       <c r="E37">
-        <v>5819.403753757579</v>
+        <v>77059.9811366067</v>
       </c>
       <c r="F37">
-        <v>20088.18611018454</v>
+        <v>256507.9503013119</v>
       </c>
       <c r="G37">
-        <v>43039.40874191547</v>
+        <v>560425.8185058081</v>
       </c>
       <c r="H37">
-        <v>33865460.04924779</v>
+        <v>5938240692.77418</v>
       </c>
       <c r="I37">
-        <v>0.1843695698336586</v>
+        <v>0.1886566183917922</v>
       </c>
     </row>
     <row r="38">
@@ -7484,22 +3569,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>7749.99434256</v>
+        <v>146168.19723624</v>
       </c>
       <c r="E38">
-        <v>2611.20977686022</v>
+        <v>62514.35658803234</v>
       </c>
       <c r="F38">
-        <v>2600.802134666333</v>
+        <v>22892.60265278199</v>
       </c>
       <c r="G38">
-        <v>12899.18655045367</v>
+        <v>269443.791819698</v>
       </c>
       <c r="H38">
-        <v>6818416.498770399</v>
+        <v>3908044779.615663</v>
       </c>
       <c r="I38">
-        <v>0.336930539745101</v>
+        <v>0.4276878128762536</v>
       </c>
     </row>
     <row r="39">
@@ -7517,22 +3602,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>9370.818957739999</v>
+        <v>113844.68551463</v>
       </c>
       <c r="E39">
-        <v>2327.778501702833</v>
+        <v>30905.04129513439</v>
       </c>
       <c r="F39">
-        <v>4780.540907738559</v>
+        <v>52901.2870823191</v>
       </c>
       <c r="G39">
-        <v>13961.09700774144</v>
+        <v>174788.0839469409</v>
       </c>
       <c r="H39">
-        <v>5418552.752989887</v>
+        <v>955121577.4539617</v>
       </c>
       <c r="I39">
-        <v>0.2484071576028221</v>
+        <v>0.2714667018089556</v>
       </c>
     </row>
     <row r="40">
@@ -7550,22 +3635,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>9578.307714479999</v>
+        <v>165824.38015608</v>
       </c>
       <c r="E40">
-        <v>3024.978362149453</v>
+        <v>58726.98897825056</v>
       </c>
       <c r="F40">
-        <v>3613.181837019439</v>
+        <v>50017.30991621831</v>
       </c>
       <c r="G40">
-        <v>15543.43359194056</v>
+        <v>281631.4503959417</v>
       </c>
       <c r="H40">
-        <v>9150494.091472387</v>
+        <v>3448859234.451563</v>
       </c>
       <c r="I40">
-        <v>0.3158155336329866</v>
+        <v>0.3541517171538622</v>
       </c>
     </row>
     <row r="41">
@@ -7583,22 +3668,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>6447.13951109</v>
+        <v>99123.00188236</v>
       </c>
       <c r="E41">
-        <v>2079.301245154135</v>
+        <v>30880.7539856418</v>
       </c>
       <c r="F41">
-        <v>2346.847813237487</v>
+        <v>38227.49696894527</v>
       </c>
       <c r="G41">
-        <v>10547.43120894251</v>
+        <v>160018.5067957747</v>
       </c>
       <c r="H41">
-        <v>4323493.668099537</v>
+        <v>953620966.7217321</v>
       </c>
       <c r="I41">
-        <v>0.3225153173089306</v>
+        <v>0.3115397374899051</v>
       </c>
     </row>
     <row r="42">
@@ -7616,22 +3701,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>19094.80814944</v>
+        <v>379310.66406158</v>
       </c>
       <c r="E42">
-        <v>3558.000996256146</v>
+        <v>94904.63990489599</v>
       </c>
       <c r="F42">
-        <v>12078.58480041844</v>
+        <v>192162.8383212644</v>
       </c>
       <c r="G42">
-        <v>26111.03149846156</v>
+        <v>566458.4898018956</v>
       </c>
       <c r="H42">
-        <v>12659371.08935972</v>
+        <v>9006890675.477976</v>
       </c>
       <c r="I42">
-        <v>0.1863334246885582</v>
+        <v>0.2502029309924397</v>
       </c>
     </row>
     <row r="43">
@@ -7649,22 +3734,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>18590.83626751</v>
+        <v>323388.43892665</v>
       </c>
       <c r="E43">
-        <v>3700.259453547277</v>
+        <v>80099.92916643135</v>
       </c>
       <c r="F43">
-        <v>11294.08542265803</v>
+        <v>165434.8594128039</v>
       </c>
       <c r="G43">
-        <v>25887.58711236197</v>
+        <v>481342.0184404961</v>
       </c>
       <c r="H43">
-        <v>13691920.02356599</v>
+        <v>6415998652.467319</v>
       </c>
       <c r="I43">
-        <v>0.1990367404834812</v>
+        <v>0.2476895260457947</v>
       </c>
     </row>
     <row r="44">
@@ -7682,22 +3767,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>17904.41193651</v>
+        <v>370400.94618086</v>
       </c>
       <c r="E44">
-        <v>4281.68203130672</v>
+        <v>103379.3365969861</v>
       </c>
       <c r="F44">
-        <v>9461.121034469581</v>
+        <v>166541.3868380286</v>
       </c>
       <c r="G44">
-        <v>26347.70283855042</v>
+        <v>574260.5055236914</v>
       </c>
       <c r="H44">
-        <v>18332801.01721484</v>
+        <v>10687287235.23295</v>
       </c>
       <c r="I44">
-        <v>0.2391411707064043</v>
+        <v>0.2791011677019526</v>
       </c>
     </row>
     <row r="45">
@@ -7715,22 +3800,22 @@
         </is>
       </c>
       <c r="D45">
-        <v>15943.93449468</v>
+        <v>235777.73253793</v>
       </c>
       <c r="E45">
-        <v>3909.170193414894</v>
+        <v>60387.95100872855</v>
       </c>
       <c r="F45">
-        <v>8235.220749181612</v>
+        <v>116695.3173523136</v>
       </c>
       <c r="G45">
-        <v>23652.64824017839</v>
+        <v>354860.1477235465</v>
       </c>
       <c r="H45">
-        <v>15281611.60108344</v>
+        <v>3646704627.032599</v>
       </c>
       <c r="I45">
-        <v>0.2451822788609213</v>
+        <v>0.2561223672766207</v>
       </c>
     </row>
     <row r="46">
@@ -7748,22 +3833,22 @@
         </is>
       </c>
       <c r="D46">
-        <v>1082343.5656904</v>
+        <v>18383524.95772246</v>
       </c>
       <c r="E46">
-        <v>31673.84415487001</v>
+        <v>580787.9156941641</v>
       </c>
       <c r="F46">
-        <v>1019884.121427594</v>
+        <v>17238236.42654702</v>
       </c>
       <c r="G46">
-        <v>1144803.009953206</v>
+        <v>19528813.4888979</v>
       </c>
       <c r="H46">
-        <v>1003232403.546993</v>
+        <v>337314603016.3715</v>
       </c>
       <c r="I46">
-        <v>0.02926413124160447</v>
+        <v>0.03159284832641357</v>
       </c>
     </row>
     <row r="47">
@@ -7781,22 +3866,22 @@
         </is>
       </c>
       <c r="D47">
-        <v>1168730.85163812</v>
+        <v>19766822.61969223</v>
       </c>
       <c r="E47">
-        <v>32870.018508951</v>
+        <v>623921.5818330803</v>
       </c>
       <c r="F47">
-        <v>1103912.603529718</v>
+        <v>18536476.37329658</v>
       </c>
       <c r="G47">
-        <v>1233549.099746522</v>
+        <v>20997168.86608788</v>
       </c>
       <c r="H47">
-        <v>1080438116.778781</v>
+        <v>389278140277.0931</v>
       </c>
       <c r="I47">
-        <v>0.02812454078959208</v>
+        <v>0.03156408057264162</v>
       </c>
     </row>
     <row r="48">
@@ -7814,22 +3899,22 @@
         </is>
       </c>
       <c r="D48">
-        <v>1205228.86636849</v>
+        <v>20038517.67852789</v>
       </c>
       <c r="E48">
-        <v>32970.37156162386</v>
+        <v>594810.4556493524</v>
       </c>
       <c r="F48">
-        <v>1140212.726401134</v>
+        <v>18865577.30792078</v>
       </c>
       <c r="G48">
-        <v>1270245.006335846</v>
+        <v>21211458.049135</v>
       </c>
       <c r="H48">
-        <v>1087045400.911535</v>
+        <v>353799478149.7902</v>
       </c>
       <c r="I48">
-        <v>0.02735610843853071</v>
+        <v>0.0296833560841038</v>
       </c>
     </row>
     <row r="49">
@@ -7847,22 +3932,22 @@
         </is>
       </c>
       <c r="D49">
-        <v>1128206.2156396</v>
+        <v>18873754.44915895</v>
       </c>
       <c r="E49">
-        <v>35890.40689735198</v>
+        <v>689742.7559163697</v>
       </c>
       <c r="F49">
-        <v>1057431.892882509</v>
+        <v>17513611.70777943</v>
       </c>
       <c r="G49">
-        <v>1198980.538396691</v>
+        <v>20233897.19053848</v>
       </c>
       <c r="H49">
-        <v>1288121307.25749</v>
+        <v>475745069339.1088</v>
       </c>
       <c r="I49">
-        <v>0.03181192090579386</v>
+        <v>0.0365450741543957</v>
       </c>
     </row>
     <row r="50">
@@ -7880,22 +3965,22 @@
         </is>
       </c>
       <c r="D50">
-        <v>566129.6841726</v>
+        <v>11808292.93491807</v>
       </c>
       <c r="E50">
-        <v>20368.98885886956</v>
+        <v>418650.4948276262</v>
       </c>
       <c r="F50">
-        <v>525962.9232925612</v>
+        <v>10982732.3518885</v>
       </c>
       <c r="G50">
-        <v>606296.4450526389</v>
+        <v>12633853.51794764</v>
       </c>
       <c r="H50">
-        <v>414895707.1327523</v>
+        <v>175268236819.4163</v>
       </c>
       <c r="I50">
-        <v>0.03597936908861949</v>
+        <v>0.03545393878141718</v>
       </c>
     </row>
     <row r="51">
@@ -7913,22 +3998,22 @@
         </is>
       </c>
       <c r="D51">
-        <v>624572.2137614799</v>
+        <v>12655594.12175724</v>
       </c>
       <c r="E51">
-        <v>22871.09784203274</v>
+        <v>487617.0160252226</v>
       </c>
       <c r="F51">
-        <v>579471.4026976614</v>
+        <v>11694034.55591779</v>
       </c>
       <c r="G51">
-        <v>669673.0248252985</v>
+        <v>13617153.68759669</v>
       </c>
       <c r="H51">
-        <v>523087116.4998345</v>
+        <v>237770354317.3422</v>
       </c>
       <c r="I51">
-        <v>0.03661882059128404</v>
+        <v>0.03852976093685885</v>
       </c>
     </row>
     <row r="52">
@@ -7946,22 +4031,22 @@
         </is>
       </c>
       <c r="D52">
-        <v>641288.86611147</v>
+        <v>13160227.50641251</v>
       </c>
       <c r="E52">
-        <v>22352.12893064002</v>
+        <v>491247.9192909398</v>
       </c>
       <c r="F52">
-        <v>597211.4391887356</v>
+        <v>12191507.95711668</v>
       </c>
       <c r="G52">
-        <v>685366.2930342045</v>
+        <v>14128947.05570834</v>
       </c>
       <c r="H52">
-        <v>499617667.7319545</v>
+        <v>241324518207.6777</v>
       </c>
       <c r="I52">
-        <v>0.03485500858010332</v>
+        <v>0.03732822392709945</v>
       </c>
     </row>
     <row r="53">
@@ -7979,22 +4064,22 @@
         </is>
       </c>
       <c r="D53">
-        <v>576882.6624384</v>
+        <v>12177547.80674953</v>
       </c>
       <c r="E53">
-        <v>19928.17708210219</v>
+        <v>439743.7167290935</v>
       </c>
       <c r="F53">
-        <v>537585.1632263408</v>
+        <v>11310392.30675201</v>
       </c>
       <c r="G53">
-        <v>616180.1616504592</v>
+        <v>13044703.30674705</v>
       </c>
       <c r="H53">
-        <v>397132241.8156229</v>
+        <v>193374536402.7172</v>
       </c>
       <c r="I53">
-        <v>0.0345445935190159</v>
+        <v>0.03611102364019142</v>
       </c>
     </row>
   </sheetData>
@@ -8002,1783 +4087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_SEC</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>6238.4618812</v>
-      </c>
-      <c r="E2">
-        <v>6040.668001899273</v>
-      </c>
-      <c r="F2">
-        <v>-5673.472916797425</v>
-      </c>
-      <c r="G2">
-        <v>18150.39667919742</v>
-      </c>
-      <c r="H2">
-        <v>36489669.90916976</v>
-      </c>
-      <c r="I2">
-        <v>0.9682944477232776</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>31158.99241512</v>
-      </c>
-      <c r="E3">
-        <v>21609.83974740719</v>
-      </c>
-      <c r="F3">
-        <v>-11454.67249501124</v>
-      </c>
-      <c r="G3">
-        <v>73772.65732525123</v>
-      </c>
-      <c r="H3">
-        <v>466985173.9086196</v>
-      </c>
-      <c r="I3">
-        <v>0.6935346130422673</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>20489.20973768</v>
-      </c>
-      <c r="E4">
-        <v>19511.46440381778</v>
-      </c>
-      <c r="F4">
-        <v>-17986.55018136357</v>
-      </c>
-      <c r="G4">
-        <v>58964.96965672357</v>
-      </c>
-      <c r="H4">
-        <v>380697243.1814482</v>
-      </c>
-      <c r="I4">
-        <v>0.9522799880336948</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>1034.19225448</v>
-      </c>
-      <c r="E5">
-        <v>1020.666587490143</v>
-      </c>
-      <c r="F5">
-        <v>-978.5179022202908</v>
-      </c>
-      <c r="G5">
-        <v>3046.902411180291</v>
-      </c>
-      <c r="H5">
-        <v>1041760.282818774</v>
-      </c>
-      <c r="I5">
-        <v>0.9869215158678037</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>6537472.19349361</v>
-      </c>
-      <c r="E6">
-        <v>294844.316844466</v>
-      </c>
-      <c r="F6">
-        <v>5956052.013356728</v>
-      </c>
-      <c r="G6">
-        <v>7118892.373630492</v>
-      </c>
-      <c r="H6">
-        <v>86933171175.47984</v>
-      </c>
-      <c r="I6">
-        <v>0.04510066094627652</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>6465139.15055509</v>
-      </c>
-      <c r="E7">
-        <v>276737.3878720548</v>
-      </c>
-      <c r="F7">
-        <v>5919425.047501656</v>
-      </c>
-      <c r="G7">
-        <v>7010853.253608524</v>
-      </c>
-      <c r="H7">
-        <v>76583581846.24808</v>
-      </c>
-      <c r="I7">
-        <v>0.04280455245086169</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>6408845.85106432</v>
-      </c>
-      <c r="E8">
-        <v>289635.7099739715</v>
-      </c>
-      <c r="F8">
-        <v>5837696.817332144</v>
-      </c>
-      <c r="G8">
-        <v>6979994.884796496</v>
-      </c>
-      <c r="H8">
-        <v>83888844492.12653</v>
-      </c>
-      <c r="I8">
-        <v>0.04519311537597234</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>5211751.40679214</v>
-      </c>
-      <c r="E9">
-        <v>245819.5736485903</v>
-      </c>
-      <c r="F9">
-        <v>4727005.889830627</v>
-      </c>
-      <c r="G9">
-        <v>5696496.923753653</v>
-      </c>
-      <c r="H9">
-        <v>60427262788.77471</v>
-      </c>
-      <c r="I9">
-        <v>0.04716640423950948</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>96209.88553184</v>
-      </c>
-      <c r="E10">
-        <v>46336.06325014511</v>
-      </c>
-      <c r="F10">
-        <v>4837.182370853247</v>
-      </c>
-      <c r="G10">
-        <v>187582.5886928267</v>
-      </c>
-      <c r="H10">
-        <v>2147030757.521448</v>
-      </c>
-      <c r="I10">
-        <v>0.4816143683572985</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>57457.36676775001</v>
-      </c>
-      <c r="E11">
-        <v>41082.62376181538</v>
-      </c>
-      <c r="F11">
-        <v>-23555.78201439435</v>
-      </c>
-      <c r="G11">
-        <v>138470.5155498944</v>
-      </c>
-      <c r="H11">
-        <v>1687781975.154877</v>
-      </c>
-      <c r="I11">
-        <v>0.7150105560506553</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>90201.79630209001</v>
-      </c>
-      <c r="E12">
-        <v>39209.37200968096</v>
-      </c>
-      <c r="F12">
-        <v>12882.61857159817</v>
-      </c>
-      <c r="G12">
-        <v>167520.9740325818</v>
-      </c>
-      <c r="H12">
-        <v>1537374853.393553</v>
-      </c>
-      <c r="I12">
-        <v>0.4346850463860715</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>6548.11863048</v>
-      </c>
-      <c r="E13">
-        <v>4811.266111409272</v>
-      </c>
-      <c r="F13">
-        <v>-2939.489064050192</v>
-      </c>
-      <c r="G13">
-        <v>16035.72632501019</v>
-      </c>
-      <c r="H13">
-        <v>23148281.59479529</v>
-      </c>
-      <c r="I13">
-        <v>0.7347554897698285</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>2159537.17618857</v>
-      </c>
-      <c r="E14">
-        <v>157652.8365217708</v>
-      </c>
-      <c r="F14">
-        <v>1848652.633489612</v>
-      </c>
-      <c r="G14">
-        <v>2470421.718887527</v>
-      </c>
-      <c r="H14">
-        <v>24854416863.36018</v>
-      </c>
-      <c r="I14">
-        <v>0.07300306670340209</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>2012222.18424241</v>
-      </c>
-      <c r="E15">
-        <v>166841.4455115554</v>
-      </c>
-      <c r="F15">
-        <v>1683218.103913476</v>
-      </c>
-      <c r="G15">
-        <v>2341226.264571344</v>
-      </c>
-      <c r="H15">
-        <v>27836067940.38531</v>
-      </c>
-      <c r="I15">
-        <v>0.0829140274956119</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>2525190.66701169</v>
-      </c>
-      <c r="E16">
-        <v>285644.9884194678</v>
-      </c>
-      <c r="F16">
-        <v>1961911.162765204</v>
-      </c>
-      <c r="G16">
-        <v>3088470.171258175</v>
-      </c>
-      <c r="H16">
-        <v>81593059409.1579</v>
-      </c>
-      <c r="I16">
-        <v>0.1131181863417466</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>1846896.40929559</v>
-      </c>
-      <c r="E17">
-        <v>193298.6453271044</v>
-      </c>
-      <c r="F17">
-        <v>1465719.880647808</v>
-      </c>
-      <c r="G17">
-        <v>2228072.937943372</v>
-      </c>
-      <c r="H17">
-        <v>37364366285.29371</v>
-      </c>
-      <c r="I17">
-        <v>0.1046613358249091</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>85901.24790742001</v>
-      </c>
-      <c r="E18">
-        <v>27984.64217573606</v>
-      </c>
-      <c r="F18">
-        <v>30716.7496304337</v>
-      </c>
-      <c r="G18">
-        <v>141085.7461844063</v>
-      </c>
-      <c r="H18">
-        <v>783140197.7039855</v>
-      </c>
-      <c r="I18">
-        <v>0.3257768991423324</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>153637.32175175</v>
-      </c>
-      <c r="E19">
-        <v>49620.12968883305</v>
-      </c>
-      <c r="F19">
-        <v>55788.58228523501</v>
-      </c>
-      <c r="G19">
-        <v>251486.061218265</v>
-      </c>
-      <c r="H19">
-        <v>2462157270.336611</v>
-      </c>
-      <c r="I19">
-        <v>0.3229692442114434</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>81621.67107958</v>
-      </c>
-      <c r="E20">
-        <v>26597.71813491279</v>
-      </c>
-      <c r="F20">
-        <v>29172.12674127523</v>
-      </c>
-      <c r="G20">
-        <v>134071.2154178848</v>
-      </c>
-      <c r="H20">
-        <v>707438609.9842684</v>
-      </c>
-      <c r="I20">
-        <v>0.3258658856540732</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>59340.06905351</v>
-      </c>
-      <c r="E21">
-        <v>18550.84743802084</v>
-      </c>
-      <c r="F21">
-        <v>22758.60404668897</v>
-      </c>
-      <c r="G21">
-        <v>95921.53406033103</v>
-      </c>
-      <c r="H21">
-        <v>344133940.6687242</v>
-      </c>
-      <c r="I21">
-        <v>0.3126192425103614</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>1630151.64996487</v>
-      </c>
-      <c r="E22">
-        <v>171038.6038061437</v>
-      </c>
-      <c r="F22">
-        <v>1292870.955869662</v>
-      </c>
-      <c r="G22">
-        <v>1967432.344060078</v>
-      </c>
-      <c r="H22">
-        <v>29254203991.95498</v>
-      </c>
-      <c r="I22">
-        <v>0.104921897180443</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>1732442.47772112</v>
-      </c>
-      <c r="E23">
-        <v>153536.8561727576</v>
-      </c>
-      <c r="F23">
-        <v>1429674.469407411</v>
-      </c>
-      <c r="G23">
-        <v>2035210.486034829</v>
-      </c>
-      <c r="H23">
-        <v>23573566203.41406</v>
-      </c>
-      <c r="I23">
-        <v>0.0886245045057555</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>1740414.76946282</v>
-      </c>
-      <c r="E24">
-        <v>177470.3133243701</v>
-      </c>
-      <c r="F24">
-        <v>1390451.023692419</v>
-      </c>
-      <c r="G24">
-        <v>2090378.515233221</v>
-      </c>
-      <c r="H24">
-        <v>31495712111.45011</v>
-      </c>
-      <c r="I24">
-        <v>0.1019701259942459</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>1449553.32749449</v>
-      </c>
-      <c r="E25">
-        <v>149580.1374208528</v>
-      </c>
-      <c r="F25">
-        <v>1154587.796617363</v>
-      </c>
-      <c r="G25">
-        <v>1744518.858371617</v>
-      </c>
-      <c r="H25">
-        <v>22374217510.84121</v>
-      </c>
-      <c r="I25">
-        <v>0.1031905032975901</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>5959049.36245896</v>
-      </c>
-      <c r="E26">
-        <v>287195.8242395202</v>
-      </c>
-      <c r="F26">
-        <v>5392711.677368063</v>
-      </c>
-      <c r="G26">
-        <v>6525387.047549858</v>
-      </c>
-      <c r="H26">
-        <v>82481441460.61737</v>
-      </c>
-      <c r="I26">
-        <v>0.04819490606149482</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>5806094.1116344</v>
-      </c>
-      <c r="E27">
-        <v>236747.3819882735</v>
-      </c>
-      <c r="F27">
-        <v>5339238.562388155</v>
-      </c>
-      <c r="G27">
-        <v>6272949.660880645</v>
-      </c>
-      <c r="H27">
-        <v>56049322878.30148</v>
-      </c>
-      <c r="I27">
-        <v>0.04077567077562057</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>5893785.3582615</v>
-      </c>
-      <c r="E28">
-        <v>308617.0685855572</v>
-      </c>
-      <c r="F28">
-        <v>5285205.910196418</v>
-      </c>
-      <c r="G28">
-        <v>6502364.806326581</v>
-      </c>
-      <c r="H28">
-        <v>95244495022.34253</v>
-      </c>
-      <c r="I28">
-        <v>0.05236313333890913</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>5236697.81081249</v>
-      </c>
-      <c r="E29">
-        <v>284313.9847587495</v>
-      </c>
-      <c r="F29">
-        <v>4676042.987945181</v>
-      </c>
-      <c r="G29">
-        <v>5797352.633679799</v>
-      </c>
-      <c r="H29">
-        <v>80834441929.39844</v>
-      </c>
-      <c r="I29">
-        <v>0.05429260863052116</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>1518477.69396736</v>
-      </c>
-      <c r="E30">
-        <v>154694.6359149112</v>
-      </c>
-      <c r="F30">
-        <v>1213426.594314309</v>
-      </c>
-      <c r="G30">
-        <v>1823528.793620411</v>
-      </c>
-      <c r="H30">
-        <v>23930430380.84693</v>
-      </c>
-      <c r="I30">
-        <v>0.1018748161592925</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>1573730.70180966</v>
-      </c>
-      <c r="E31">
-        <v>156898.0378968491</v>
-      </c>
-      <c r="F31">
-        <v>1264334.589198709</v>
-      </c>
-      <c r="G31">
-        <v>1883126.814420611</v>
-      </c>
-      <c r="H31">
-        <v>24616994295.8811</v>
-      </c>
-      <c r="I31">
-        <v>0.09969814893769904</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>1330113.37600647</v>
-      </c>
-      <c r="E32">
-        <v>129696.5347964397</v>
-      </c>
-      <c r="F32">
-        <v>1074357.445447856</v>
-      </c>
-      <c r="G32">
-        <v>1585869.306565084</v>
-      </c>
-      <c r="H32">
-        <v>16821191138.20409</v>
-      </c>
-      <c r="I32">
-        <v>0.09750787950561052</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>1374714.29383516</v>
-      </c>
-      <c r="E33">
-        <v>163920.4359645408</v>
-      </c>
-      <c r="F33">
-        <v>1051470.317398284</v>
-      </c>
-      <c r="G33">
-        <v>1697958.270272037</v>
-      </c>
-      <c r="H33">
-        <v>26869909326.80511</v>
-      </c>
-      <c r="I33">
-        <v>0.1192396388832458</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>584507.06835448</v>
-      </c>
-      <c r="E34">
-        <v>102168.0233985592</v>
-      </c>
-      <c r="F34">
-        <v>383036.166000425</v>
-      </c>
-      <c r="G34">
-        <v>785977.9707085349</v>
-      </c>
-      <c r="H34">
-        <v>10438305005.16855</v>
-      </c>
-      <c r="I34">
-        <v>0.1747934780090605</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>421608.55606637</v>
-      </c>
-      <c r="E35">
-        <v>65218.36660647869</v>
-      </c>
-      <c r="F35">
-        <v>293000.7712313144</v>
-      </c>
-      <c r="G35">
-        <v>550216.3409014256</v>
-      </c>
-      <c r="H35">
-        <v>4253435342.817055</v>
-      </c>
-      <c r="I35">
-        <v>0.1546893811049982</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>705547.1499358601</v>
-      </c>
-      <c r="E36">
-        <v>142031.1839392898</v>
-      </c>
-      <c r="F36">
-        <v>425467.8272789532</v>
-      </c>
-      <c r="G36">
-        <v>985626.4725927669</v>
-      </c>
-      <c r="H36">
-        <v>20172857211.19637</v>
-      </c>
-      <c r="I36">
-        <v>0.201306438488486</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>408466.88440356</v>
-      </c>
-      <c r="E37">
-        <v>77059.9811366067</v>
-      </c>
-      <c r="F37">
-        <v>256507.9503013119</v>
-      </c>
-      <c r="G37">
-        <v>560425.8185058081</v>
-      </c>
-      <c r="H37">
-        <v>5938240692.77418</v>
-      </c>
-      <c r="I37">
-        <v>0.1886566183917922</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>146168.19723624</v>
-      </c>
-      <c r="E38">
-        <v>62514.35658803234</v>
-      </c>
-      <c r="F38">
-        <v>22892.60265278199</v>
-      </c>
-      <c r="G38">
-        <v>269443.791819698</v>
-      </c>
-      <c r="H38">
-        <v>3908044779.615663</v>
-      </c>
-      <c r="I38">
-        <v>0.4276878128762536</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>113844.68551463</v>
-      </c>
-      <c r="E39">
-        <v>30905.04129513439</v>
-      </c>
-      <c r="F39">
-        <v>52901.2870823191</v>
-      </c>
-      <c r="G39">
-        <v>174788.0839469409</v>
-      </c>
-      <c r="H39">
-        <v>955121577.4539617</v>
-      </c>
-      <c r="I39">
-        <v>0.2714667018089556</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>165824.38015608</v>
-      </c>
-      <c r="E40">
-        <v>58726.98897825056</v>
-      </c>
-      <c r="F40">
-        <v>50017.30991621831</v>
-      </c>
-      <c r="G40">
-        <v>281631.4503959417</v>
-      </c>
-      <c r="H40">
-        <v>3448859234.451563</v>
-      </c>
-      <c r="I40">
-        <v>0.3541517171538622</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>99123.00188236</v>
-      </c>
-      <c r="E41">
-        <v>30880.7539856418</v>
-      </c>
-      <c r="F41">
-        <v>38227.49696894527</v>
-      </c>
-      <c r="G41">
-        <v>160018.5067957747</v>
-      </c>
-      <c r="H41">
-        <v>953620966.7217321</v>
-      </c>
-      <c r="I41">
-        <v>0.3115397374899051</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>379310.66406158</v>
-      </c>
-      <c r="E42">
-        <v>94904.63990489599</v>
-      </c>
-      <c r="F42">
-        <v>192162.8383212644</v>
-      </c>
-      <c r="G42">
-        <v>566458.4898018956</v>
-      </c>
-      <c r="H42">
-        <v>9006890675.477976</v>
-      </c>
-      <c r="I42">
-        <v>0.2502029309924397</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>323388.43892665</v>
-      </c>
-      <c r="E43">
-        <v>80099.92916643135</v>
-      </c>
-      <c r="F43">
-        <v>165434.8594128039</v>
-      </c>
-      <c r="G43">
-        <v>481342.0184404961</v>
-      </c>
-      <c r="H43">
-        <v>6415998652.467319</v>
-      </c>
-      <c r="I43">
-        <v>0.2476895260457947</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>370400.94618086</v>
-      </c>
-      <c r="E44">
-        <v>103379.3365969861</v>
-      </c>
-      <c r="F44">
-        <v>166541.3868380286</v>
-      </c>
-      <c r="G44">
-        <v>574260.5055236914</v>
-      </c>
-      <c r="H44">
-        <v>10687287235.23295</v>
-      </c>
-      <c r="I44">
-        <v>0.2791011677019526</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>235777.73253793</v>
-      </c>
-      <c r="E45">
-        <v>60387.95100872855</v>
-      </c>
-      <c r="F45">
-        <v>116695.3173523136</v>
-      </c>
-      <c r="G45">
-        <v>354860.1477235465</v>
-      </c>
-      <c r="H45">
-        <v>3646704627.032599</v>
-      </c>
-      <c r="I45">
-        <v>0.2561223672766207</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>18383524.95772246</v>
-      </c>
-      <c r="E46">
-        <v>580787.9156941641</v>
-      </c>
-      <c r="F46">
-        <v>17238236.42654702</v>
-      </c>
-      <c r="G46">
-        <v>19528813.4888979</v>
-      </c>
-      <c r="H46">
-        <v>337314603016.3715</v>
-      </c>
-      <c r="I46">
-        <v>0.03159284832641357</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>19766822.61969223</v>
-      </c>
-      <c r="E47">
-        <v>623921.5818330803</v>
-      </c>
-      <c r="F47">
-        <v>18536476.37329658</v>
-      </c>
-      <c r="G47">
-        <v>20997168.86608788</v>
-      </c>
-      <c r="H47">
-        <v>389278140277.0931</v>
-      </c>
-      <c r="I47">
-        <v>0.03156408057264162</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>20038517.67852789</v>
-      </c>
-      <c r="E48">
-        <v>594810.4556493524</v>
-      </c>
-      <c r="F48">
-        <v>18865577.30792078</v>
-      </c>
-      <c r="G48">
-        <v>21211458.049135</v>
-      </c>
-      <c r="H48">
-        <v>353799478149.7902</v>
-      </c>
-      <c r="I48">
-        <v>0.0296833560841038</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>18873754.44915895</v>
-      </c>
-      <c r="E49">
-        <v>689742.7559163697</v>
-      </c>
-      <c r="F49">
-        <v>17513611.70777943</v>
-      </c>
-      <c r="G49">
-        <v>20233897.19053848</v>
-      </c>
-      <c r="H49">
-        <v>475745069339.1088</v>
-      </c>
-      <c r="I49">
-        <v>0.0365450741543957</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>11808292.93491807</v>
-      </c>
-      <c r="E50">
-        <v>418650.4948276262</v>
-      </c>
-      <c r="F50">
-        <v>10982732.3518885</v>
-      </c>
-      <c r="G50">
-        <v>12633853.51794764</v>
-      </c>
-      <c r="H50">
-        <v>175268236819.4163</v>
-      </c>
-      <c r="I50">
-        <v>0.03545393878141718</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>12655594.12175724</v>
-      </c>
-      <c r="E51">
-        <v>487617.0160252226</v>
-      </c>
-      <c r="F51">
-        <v>11694034.55591779</v>
-      </c>
-      <c r="G51">
-        <v>13617153.68759669</v>
-      </c>
-      <c r="H51">
-        <v>237770354317.3422</v>
-      </c>
-      <c r="I51">
-        <v>0.03852976093685885</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>13160227.50641251</v>
-      </c>
-      <c r="E52">
-        <v>491247.9192909398</v>
-      </c>
-      <c r="F52">
-        <v>12191507.95711668</v>
-      </c>
-      <c r="G52">
-        <v>14128947.05570834</v>
-      </c>
-      <c r="H52">
-        <v>241324518207.6777</v>
-      </c>
-      <c r="I52">
-        <v>0.03732822392709945</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>12177547.80674953</v>
-      </c>
-      <c r="E53">
-        <v>439743.7167290935</v>
-      </c>
-      <c r="F53">
-        <v>11310392.30675201</v>
-      </c>
-      <c r="G53">
-        <v>13044703.30674705</v>
-      </c>
-      <c r="H53">
-        <v>193374536402.7172</v>
-      </c>
-      <c r="I53">
-        <v>0.03611102364019142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
